--- a/results_go_wgt2.xlsx
+++ b/results_go_wgt2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="58">
   <si>
     <t>code</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>share_lab_d</t>
+  </si>
+  <si>
+    <t>share_go_m</t>
+  </si>
+  <si>
+    <t>share_go_d</t>
+  </si>
+  <si>
+    <t>share_ii_m</t>
+  </si>
+  <si>
+    <t>share_ii_d</t>
   </si>
   <si>
     <t>tfp</t>
@@ -533,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,16 +585,28 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>2014</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>0.007491414248316074</v>
@@ -597,27 +621,39 @@
         <v>0.02505739059245266</v>
       </c>
       <c r="H2">
+        <v>0.02792209849214781</v>
+      </c>
+      <c r="I2">
+        <v>0.0279220984921478</v>
+      </c>
+      <c r="J2">
+        <v>0.02055619000940351</v>
+      </c>
+      <c r="K2">
+        <v>0.03080567811578941</v>
+      </c>
+      <c r="L2">
         <v>3.592231738269886</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>0.1158104857768774</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>3.464646423347909E-32</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2014</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>0.0952203854111643</v>
@@ -632,27 +668,39 @@
         <v>0.1980919340265078</v>
       </c>
       <c r="H3">
+        <v>0.3549066827413048</v>
+      </c>
+      <c r="I3">
+        <v>0.3549066827413049</v>
+      </c>
+      <c r="J3">
+        <v>0.2993524279684598</v>
+      </c>
+      <c r="K3">
+        <v>0.4489869659022499</v>
+      </c>
+      <c r="L3">
         <v>4.565604694500252</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>0.1158104857768774</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>3.464646423347909E-32</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2014</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>0.09276504235040399</v>
@@ -667,27 +715,39 @@
         <v>0.2350241384836071</v>
       </c>
       <c r="H4">
+        <v>0.3457550955373305</v>
+      </c>
+      <c r="I4">
+        <v>0.3457550955373304</v>
+      </c>
+      <c r="J4">
+        <v>0.2042356659661507</v>
+      </c>
+      <c r="K4">
+        <v>0.3028632244092502</v>
+      </c>
+      <c r="L4">
         <v>5.650574301813315</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>0.1158104857768774</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>3.464646423347909E-32</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2014</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>0.0728201217882626</v>
@@ -702,27 +762,39 @@
         <v>0.5418265368974325</v>
       </c>
       <c r="H5">
+        <v>0.2714161232292169</v>
+      </c>
+      <c r="I5">
+        <v>0.2714161232292169</v>
+      </c>
+      <c r="J5">
+        <v>0.1357908860079156</v>
+      </c>
+      <c r="K5">
+        <v>0.2173441315727104</v>
+      </c>
+      <c r="L5">
         <v>5.127284357745794</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>0.1158104857768774</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>3.464646423347909E-32</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2014</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>0.001553625028226129</v>
@@ -737,27 +809,39 @@
         <v>0.04416315840027739</v>
       </c>
       <c r="H6">
+        <v>0.01576713537617474</v>
+      </c>
+      <c r="I6">
+        <v>0.01576713537617474</v>
+      </c>
+      <c r="J6">
+        <v>0.002764727697189416</v>
+      </c>
+      <c r="K6">
+        <v>0.01738321718582441</v>
+      </c>
+      <c r="L6">
         <v>1.785503579520987</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>0.04296396602181814</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>7.882715233138614E-32</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2014</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>0.04108942881394609</v>
@@ -772,27 +856,39 @@
         <v>0.2338039915754752</v>
       </c>
       <c r="H7">
+        <v>0.417000611388765</v>
+      </c>
+      <c r="I7">
+        <v>0.4170006113887649</v>
+      </c>
+      <c r="J7">
+        <v>0.1295099069213578</v>
+      </c>
+      <c r="K7">
+        <v>0.5405205601652532</v>
+      </c>
+      <c r="L7">
         <v>5.032893525225674</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>0.04296396602181814</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>7.882715233138614E-32</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2014</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>0.02813459870814983</v>
@@ -807,27 +903,39 @@
         <v>0.2309645799802741</v>
       </c>
       <c r="H8">
+        <v>0.2855270857037091</v>
+      </c>
+      <c r="I8">
+        <v>0.2855270857037092</v>
+      </c>
+      <c r="J8">
+        <v>0.06445270830380898</v>
+      </c>
+      <c r="K8">
+        <v>0.2473511724940766</v>
+      </c>
+      <c r="L8">
         <v>5.20183783612051</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>0.04296396602181814</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>7.882715233138614E-32</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2014</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>0.02775800349369002</v>
@@ -842,27 +950,39 @@
         <v>0.4910682700439733</v>
       </c>
       <c r="H9">
+        <v>0.2817051675313513</v>
+      </c>
+      <c r="I9">
+        <v>0.2817051675313513</v>
+      </c>
+      <c r="J9">
+        <v>0.05015839007113462</v>
+      </c>
+      <c r="K9">
+        <v>0.1947450501548458</v>
+      </c>
+      <c r="L9">
         <v>5.189502587154187</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>0.04296396602181814</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>7.882715233138614E-32</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2014</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>0.001483845293780675</v>
@@ -877,27 +997,39 @@
         <v>0.01298958195964658</v>
       </c>
       <c r="H10">
+        <v>0.01099595848860319</v>
+      </c>
+      <c r="I10">
+        <v>0.01099595848860319</v>
+      </c>
+      <c r="J10">
+        <v>0.002513925446917327</v>
+      </c>
+      <c r="K10">
+        <v>0.01397454416043878</v>
+      </c>
+      <c r="L10">
         <v>1.851326203437061</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>0.0422176997886963</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>7.180891377269909E-32</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2014</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0.05178822952649079</v>
@@ -912,27 +1044,39 @@
         <v>0.1853268275528595</v>
       </c>
       <c r="H11">
+        <v>0.3837739853732475</v>
+      </c>
+      <c r="I11">
+        <v>0.3837739853732474</v>
+      </c>
+      <c r="J11">
+        <v>0.1649026171877358</v>
+      </c>
+      <c r="K11">
+        <v>0.5033461031212711</v>
+      </c>
+      <c r="L11">
         <v>5.491270135495994</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>0.0422176997886963</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>7.180891377269909E-32</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>2014</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>0.04341336517681305</v>
@@ -947,27 +1091,39 @@
         <v>0.293990944656908</v>
       </c>
       <c r="H12">
+        <v>0.3217124880441661</v>
+      </c>
+      <c r="I12">
+        <v>0.3217124880441662</v>
+      </c>
+      <c r="J12">
+        <v>0.09676722335386835</v>
+      </c>
+      <c r="K12">
+        <v>0.2805773618874166</v>
+      </c>
+      <c r="L12">
         <v>5.862764585853607</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>0.0422176997886963</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>7.180891377269909E-32</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2014</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>0.03825916672534108</v>
@@ -982,27 +1138,39 @@
         <v>0.507692645830586</v>
       </c>
       <c r="H13">
+        <v>0.2835175680939832</v>
+      </c>
+      <c r="I13">
+        <v>0.2835175680939832</v>
+      </c>
+      <c r="J13">
+        <v>0.07223522733165591</v>
+      </c>
+      <c r="K13">
+        <v>0.2021019908308735</v>
+      </c>
+      <c r="L13">
         <v>5.813518719087882</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>0.0422176997886963</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>7.180891377269909E-32</v>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2014</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>0.001814988176647444</v>
@@ -1017,27 +1185,39 @@
         <v>0.179366393173978</v>
       </c>
       <c r="H14">
+        <v>0.05137977785543352</v>
+      </c>
+      <c r="I14">
+        <v>0.05137977785543352</v>
+      </c>
+      <c r="J14">
+        <v>0.00349906184405701</v>
+      </c>
+      <c r="K14">
+        <v>0.05050756943924915</v>
+      </c>
+      <c r="L14">
         <v>1.392934092396126</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>0.03644745566975785</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>5.402561685549701E-32</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0.01546256718024862</v>
@@ -1052,27 +1232,39 @@
         <v>0.2556064149496992</v>
       </c>
       <c r="H15">
+        <v>0.437723659590656</v>
+      </c>
+      <c r="I15">
+        <v>0.437723659590656</v>
+      </c>
+      <c r="J15">
+        <v>0.04458272685512032</v>
+      </c>
+      <c r="K15">
+        <v>0.5473649891152654</v>
+      </c>
+      <c r="L15">
         <v>4.043755703887228</v>
       </c>
-      <c r="I15">
+      <c r="M15">
         <v>0.03644745566975785</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>5.402561685549701E-32</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>0.009525743452213929</v>
@@ -1087,27 +1279,39 @@
         <v>0.1716171250493009</v>
       </c>
       <c r="H16">
+        <v>0.2696604797650274</v>
+      </c>
+      <c r="I16">
+        <v>0.2696604797650275</v>
+      </c>
+      <c r="J16">
+        <v>0.0246665603965529</v>
+      </c>
+      <c r="K16">
+        <v>0.2172218019800334</v>
+      </c>
+      <c r="L16">
         <v>5.144575902587623</v>
       </c>
-      <c r="I16">
+      <c r="M16">
         <v>0.03644745566975785</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>5.402561685549701E-32</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2014</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>0.008521652998860993</v>
@@ -1122,27 +1326,39 @@
         <v>0.3934100668270219</v>
       </c>
       <c r="H17">
+        <v>0.2412360827888831</v>
+      </c>
+      <c r="I17">
+        <v>0.2412360827888831</v>
+      </c>
+      <c r="J17">
+        <v>0.01852755763121921</v>
+      </c>
+      <c r="K17">
+        <v>0.1849056394654519</v>
+      </c>
+      <c r="L17">
         <v>3.730692119532711</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>0.03644745566975785</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>5.402561685549701E-32</v>
       </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2014</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>0.03092475279717548</v>
@@ -1157,27 +1373,39 @@
         <v>0.1350301411701779</v>
       </c>
       <c r="H18">
+        <v>0.04495455654614396</v>
+      </c>
+      <c r="I18">
+        <v>0.04495455654614396</v>
+      </c>
+      <c r="J18">
+        <v>0.08035468371078591</v>
+      </c>
+      <c r="K18">
+        <v>0.03752038785896802</v>
+      </c>
+      <c r="L18">
         <v>3.50195942683986</v>
       </c>
-      <c r="I18">
+      <c r="M18">
         <v>0.9511646656391192</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>8.991460035574929E-32</v>
       </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>2014</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>0.2790659373534739</v>
@@ -1192,27 +1420,39 @@
         <v>0.2194109412785144</v>
       </c>
       <c r="H19">
+        <v>0.4056713255927866</v>
+      </c>
+      <c r="I19">
+        <v>0.4056713255927866</v>
+      </c>
+      <c r="J19">
+        <v>0.814325095989277</v>
+      </c>
+      <c r="K19">
+        <v>0.5728387536717429</v>
+      </c>
+      <c r="L19">
         <v>2.972123722693448</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>0.9511646656391192</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>8.991460035574929E-32</v>
       </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>2014</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>0.1743295804549269</v>
@@ -1227,27 +1467,39 @@
         <v>0.1507171070997733</v>
       </c>
       <c r="H20">
+        <v>0.2534186460155746</v>
+      </c>
+      <c r="I20">
+        <v>0.2534186460155746</v>
+      </c>
+      <c r="J20">
+        <v>0.3515011498171708</v>
+      </c>
+      <c r="K20">
+        <v>0.186668838916261</v>
+      </c>
+      <c r="L20">
         <v>4.301347969510465</v>
       </c>
-      <c r="I20">
+      <c r="M20">
         <v>0.9511646656391192</v>
       </c>
-      <c r="J20">
+      <c r="N20">
         <v>8.991460035574929E-32</v>
       </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2014</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>0.2035911486836458</v>
@@ -1262,27 +1514,39 @@
         <v>0.4948418104515344</v>
       </c>
       <c r="H21">
+        <v>0.2959554718454949</v>
+      </c>
+      <c r="I21">
+        <v>0.2959554718454949</v>
+      </c>
+      <c r="J21">
+        <v>0.4323186458180211</v>
+      </c>
+      <c r="K21">
+        <v>0.202972019553028</v>
+      </c>
+      <c r="L21">
         <v>4.135113025143545</v>
       </c>
-      <c r="I21">
+      <c r="M21">
         <v>0.9511646656391192</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <v>8.991460035574929E-32</v>
       </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2014</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>0.008850486326700286</v>
@@ -1297,27 +1561,39 @@
         <v>0.01914728419569238</v>
       </c>
       <c r="H22">
-        <v>2.478929501342738</v>
+        <v>0.02344538150088149</v>
       </c>
       <c r="I22">
+        <v>0.0234453815008815</v>
+      </c>
+      <c r="J22">
+        <v>0.02411304921149196</v>
+      </c>
+      <c r="K22">
+        <v>0.02913066174440722</v>
+      </c>
+      <c r="L22">
+        <v>2.478929501342737</v>
+      </c>
+      <c r="M22">
         <v>0.1814832507354712</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>7.007535047867858E-32</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>2014</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>0.1357328849058688</v>
@@ -1326,68 +1602,92 @@
         <v>0.1357328849058688</v>
       </c>
       <c r="F23">
-        <v>0.2360836733870269</v>
+        <v>0.2360836733870268</v>
       </c>
       <c r="G23">
         <v>0.2109935704171437</v>
       </c>
       <c r="H23">
-        <v>4.678477809127138</v>
+        <v>0.3595632094513149</v>
       </c>
       <c r="I23">
+        <v>0.359563209451315</v>
+      </c>
+      <c r="J23">
+        <v>0.3989209836853307</v>
+      </c>
+      <c r="K23">
+        <v>0.4272035198437587</v>
+      </c>
+      <c r="L23">
+        <v>4.678477809127139</v>
+      </c>
+      <c r="M23">
         <v>0.1814832507354712</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <v>7.007535047867858E-32</v>
       </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>2014</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>0.1151474206168274</v>
+        <v>0.1151474206168273</v>
       </c>
       <c r="E24">
         <v>0.1151474206168273</v>
       </c>
       <c r="F24">
-        <v>0.2508883997520356</v>
+        <v>0.2508883997520355</v>
       </c>
       <c r="G24">
         <v>0.2394796712714856</v>
       </c>
       <c r="H24">
+        <v>0.3050312836549514</v>
+      </c>
+      <c r="I24">
+        <v>0.3050312836549515</v>
+      </c>
+      <c r="J24">
+        <v>0.242784421409984</v>
+      </c>
+      <c r="K24">
+        <v>0.2765040890214595</v>
+      </c>
+      <c r="L24">
         <v>4.883884339278017</v>
       </c>
-      <c r="I24">
+      <c r="M24">
         <v>0.1814832507354712</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>7.007535047867858E-32</v>
       </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>2014</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>0.1177630154647446</v>
@@ -1396,33 +1696,45 @@
         <v>0.1177630154647446</v>
       </c>
       <c r="F25">
-        <v>0.49592535935926</v>
+        <v>0.4959253593592602</v>
       </c>
       <c r="G25">
         <v>0.5303794741156783</v>
       </c>
       <c r="H25">
-        <v>5.335584192940305</v>
+        <v>0.3119601253928521</v>
       </c>
       <c r="I25">
+        <v>0.3119601253928521</v>
+      </c>
+      <c r="J25">
+        <v>0.2642888702691529</v>
+      </c>
+      <c r="K25">
+        <v>0.2671617293903747</v>
+      </c>
+      <c r="L25">
+        <v>5.335584192940303</v>
+      </c>
+      <c r="M25">
         <v>0.1814832507354712</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <v>7.007535047867858E-32</v>
       </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>2014</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>0.001163429809525074</v>
@@ -1437,27 +1749,39 @@
         <v>0.03177137714514863</v>
       </c>
       <c r="H26">
+        <v>0.009021230135572867</v>
+      </c>
+      <c r="I26">
+        <v>0.009021230135572867</v>
+      </c>
+      <c r="J26">
+        <v>0.001516895945242408</v>
+      </c>
+      <c r="K26">
+        <v>0.0104480313251867</v>
+      </c>
+      <c r="L26">
         <v>1.464312446402114</v>
       </c>
-      <c r="I26">
+      <c r="M26">
         <v>0.05278168702811132</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <v>3.008574088953974E-32</v>
       </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>2014</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D27">
         <v>0.04693381423545336</v>
@@ -1472,27 +1796,39 @@
         <v>0.2253701370255814</v>
       </c>
       <c r="H27">
+        <v>0.3639246097115975</v>
+      </c>
+      <c r="I27">
+        <v>0.3639246097115975</v>
+      </c>
+      <c r="J27">
+        <v>0.1481527145147674</v>
+      </c>
+      <c r="K27">
+        <v>0.460162572510591</v>
+      </c>
+      <c r="L27">
         <v>5.046766624135156</v>
       </c>
-      <c r="I27">
+      <c r="M27">
         <v>0.05278168702811132</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <v>3.008574088953974E-32</v>
       </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>2014</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>0.04086392068785737</v>
@@ -1507,27 +1843,39 @@
         <v>0.2612143440549054</v>
       </c>
       <c r="H28">
+        <v>0.3168586791818949</v>
+      </c>
+      <c r="I28">
+        <v>0.3168586791818949</v>
+      </c>
+      <c r="J28">
+        <v>0.09301600655338607</v>
+      </c>
+      <c r="K28">
+        <v>0.2866821646249685</v>
+      </c>
+      <c r="L28">
         <v>5.162824357638628</v>
       </c>
-      <c r="I28">
+      <c r="M28">
         <v>0.05278168702811132</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <v>3.008574088953974E-32</v>
       </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>2014</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>0.04000459625993524</v>
@@ -1542,27 +1890,39 @@
         <v>0.4816441417743645</v>
       </c>
       <c r="H29">
+        <v>0.3101954809709348</v>
+      </c>
+      <c r="I29">
+        <v>0.3101954809709349</v>
+      </c>
+      <c r="J29">
+        <v>0.07646746295274504</v>
+      </c>
+      <c r="K29">
+        <v>0.2427072315392538</v>
+      </c>
+      <c r="L29">
         <v>5.674200831287814</v>
       </c>
-      <c r="I29">
+      <c r="M29">
         <v>0.05278168702811132</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>3.008574088953974E-32</v>
       </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>2014</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D30">
         <v>0.3526941632729904</v>
@@ -1577,27 +1937,39 @@
         <v>0.2378920214055206</v>
       </c>
       <c r="H30">
+        <v>0.05263384971097756</v>
+      </c>
+      <c r="I30">
+        <v>0.05263384971097756</v>
+      </c>
+      <c r="J30">
+        <v>0.6268513912599791</v>
+      </c>
+      <c r="K30">
+        <v>0.03221965026452705</v>
+      </c>
+      <c r="L30">
         <v>2.488254965649864</v>
       </c>
-      <c r="I30">
+      <c r="M30">
         <v>6.042251713154276</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <v>2.848718074032085E-32</v>
       </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>2014</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>4.481074264850676</v>
@@ -1612,27 +1984,39 @@
         <v>0.3061167389463264</v>
       </c>
       <c r="H31">
+        <v>0.6687272259091048</v>
+      </c>
+      <c r="I31">
+        <v>0.6687272259091047</v>
+      </c>
+      <c r="J31">
+        <v>13.61918892464123</v>
+      </c>
+      <c r="K31">
+        <v>0.7774297685231112</v>
+      </c>
+      <c r="L31">
         <v>4.951203592161924</v>
       </c>
-      <c r="I31">
+      <c r="M31">
         <v>6.042251713154276</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>2.848718074032085E-32</v>
       </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>2014</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>0.8881187419155901</v>
@@ -1647,27 +2031,39 @@
         <v>0.09152701229840579</v>
       </c>
       <c r="H32">
+        <v>0.1325372326938857</v>
+      </c>
+      <c r="I32">
+        <v>0.1325372326938856</v>
+      </c>
+      <c r="J32">
+        <v>1.746212804552907</v>
+      </c>
+      <c r="K32">
+        <v>0.08555488501722014</v>
+      </c>
+      <c r="L32">
         <v>5.145934489085553</v>
       </c>
-      <c r="I32">
+      <c r="M32">
         <v>6.042251713154276</v>
       </c>
-      <c r="J32">
+      <c r="N32">
         <v>2.848718074032085E-32</v>
       </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2014</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>0.9790128251102701</v>
@@ -1682,167 +2078,227 @@
         <v>0.3644642273497471</v>
       </c>
       <c r="H33">
+        <v>0.1461016916860321</v>
+      </c>
+      <c r="I33">
+        <v>0.1461016916860321</v>
+      </c>
+      <c r="J33">
+        <v>1.613218698882883</v>
+      </c>
+      <c r="K33">
+        <v>0.1047956961951416</v>
+      </c>
+      <c r="L33">
         <v>3.326126401190111</v>
       </c>
-      <c r="I33">
+      <c r="M33">
         <v>6.042251713154276</v>
       </c>
-      <c r="J33">
+      <c r="N33">
         <v>2.848718074032085E-32</v>
       </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>2014</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>0.0008878120538623435</v>
+        <v>0.0008878119447543648</v>
       </c>
       <c r="E34">
         <v>0.0001478283816635943</v>
       </c>
       <c r="F34">
-        <v>0.1459689594508738</v>
+        <v>0.1459689279093752</v>
       </c>
       <c r="G34">
         <v>0.04145338591927498</v>
       </c>
       <c r="H34">
-        <v>2.484962273637056</v>
+        <v>0.07857001568297957</v>
       </c>
       <c r="I34">
-        <v>0.003592912912778048</v>
+        <v>0.02620049100663095</v>
       </c>
       <c r="J34">
-        <v>30.56309452781157</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.0008212804541729207</v>
+      </c>
+      <c r="K34">
+        <v>0.02952900905585164</v>
+      </c>
+      <c r="L34">
+        <v>2.484958332390837</v>
+      </c>
+      <c r="M34">
+        <v>0.003592912832777519</v>
+      </c>
+      <c r="N34">
+        <v>30.56309452824378</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>2014</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>0.003056322986966973</v>
+        <v>0.003056328838741724</v>
       </c>
       <c r="E35">
         <v>0.001079679216309609</v>
       </c>
       <c r="F35">
-        <v>0.238549645576044</v>
+        <v>0.2385493708963711</v>
       </c>
       <c r="G35">
         <v>0.155911722749014</v>
       </c>
       <c r="H35">
-        <v>4.2459011870054</v>
+        <v>0.2704804843087795</v>
       </c>
       <c r="I35">
-        <v>0.003592912912778048</v>
+        <v>0.1913578791746509</v>
       </c>
       <c r="J35">
-        <v>30.56309452781157</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.00804513529836428</v>
+      </c>
+      <c r="K35">
+        <v>0.2778066640669006</v>
+      </c>
+      <c r="L35">
+        <v>4.245920043889248</v>
+      </c>
+      <c r="M35">
+        <v>0.003592912832777519</v>
+      </c>
+      <c r="N35">
+        <v>30.56309452824378</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>2014</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>0.002411109207522215</v>
+        <v>0.002411065138529353</v>
       </c>
       <c r="E36">
         <v>0.002411103706226025</v>
       </c>
       <c r="F36">
-        <v>0.1635917886933459</v>
+        <v>0.1635917830965219</v>
       </c>
       <c r="G36">
         <v>0.2114066739391905</v>
       </c>
       <c r="H36">
-        <v>5.197341957665142</v>
+        <v>0.2133756217926863</v>
       </c>
       <c r="I36">
-        <v>0.003592912912778048</v>
+        <v>0.4273340495249898</v>
       </c>
       <c r="J36">
-        <v>30.56309452781157</v>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.008476581707527648</v>
+      </c>
+      <c r="K36">
+        <v>0.4561506131114866</v>
+      </c>
+      <c r="L36">
+        <v>5.197281023411206</v>
+      </c>
+      <c r="M36">
+        <v>0.003592912832777519</v>
+      </c>
+      <c r="N36">
+        <v>30.56309452824378</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>2014</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>0.004944430523202493</v>
+        <v>0.004944422021751198</v>
       </c>
       <c r="E37">
         <v>0.002003587600629738</v>
       </c>
       <c r="F37">
-        <v>0.4518896062797363</v>
+        <v>0.4518899180977318</v>
       </c>
       <c r="G37">
         <v>0.5912282173925204</v>
       </c>
       <c r="H37">
-        <v>9.935848467464414</v>
+        <v>0.4375738782155547</v>
       </c>
       <c r="I37">
-        <v>0.003592912912778048</v>
+        <v>0.3551075802937284</v>
       </c>
       <c r="J37">
-        <v>30.56309452781157</v>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.01078310450187069</v>
+      </c>
+      <c r="K37">
+        <v>0.2365137137657611</v>
+      </c>
+      <c r="L37">
+        <v>9.935851721952442</v>
+      </c>
+      <c r="M37">
+        <v>0.003592912832777519</v>
+      </c>
+      <c r="N37">
+        <v>30.56309452824378</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>2014</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>0.002645472568119898</v>
@@ -1857,27 +2313,39 @@
         <v>0.03276031809098435</v>
       </c>
       <c r="H38">
+        <v>0.02548503775209279</v>
+      </c>
+      <c r="I38">
+        <v>0.0254850377520928</v>
+      </c>
+      <c r="J38">
+        <v>0.005313190004654052</v>
+      </c>
+      <c r="K38">
+        <v>0.02453913392143663</v>
+      </c>
+      <c r="L38">
         <v>2.259983477915763</v>
       </c>
-      <c r="I38">
+      <c r="M38">
         <v>0.03677907407338074</v>
       </c>
-      <c r="J38">
+      <c r="N38">
         <v>3.454689046742713E-32</v>
       </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>2014</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>0.05468555765177639</v>
@@ -1892,27 +2360,39 @@
         <v>0.3714238740475571</v>
       </c>
       <c r="H39">
-        <v>5.488235526995598</v>
+        <v>0.5268107929163772</v>
       </c>
       <c r="I39">
+        <v>0.5268107929163773</v>
+      </c>
+      <c r="J39">
+        <v>0.1648425737486956</v>
+      </c>
+      <c r="K39">
+        <v>0.6130364680063437</v>
+      </c>
+      <c r="L39">
+        <v>5.488235526995597</v>
+      </c>
+      <c r="M39">
         <v>0.03677907407338074</v>
       </c>
-      <c r="J39">
+      <c r="N39">
         <v>3.454689046742713E-32</v>
       </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>2014</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>0.02554481358015085</v>
@@ -1927,27 +2407,39 @@
         <v>0.2034063841322469</v>
       </c>
       <c r="H40">
+        <v>0.2460847813375671</v>
+      </c>
+      <c r="I40">
+        <v>0.2460847813375671</v>
+      </c>
+      <c r="J40">
+        <v>0.05937979951418064</v>
+      </c>
+      <c r="K40">
+        <v>0.2156269109973679</v>
+      </c>
+      <c r="L40">
         <v>5.365363281161879</v>
       </c>
-      <c r="I40">
+      <c r="M40">
         <v>0.03677907407338074</v>
       </c>
-      <c r="J40">
+      <c r="N40">
         <v>3.454689046742713E-32</v>
       </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>2014</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>0.0209290865223596</v>
@@ -1962,27 +2454,39 @@
         <v>0.3924094237292116</v>
       </c>
       <c r="H41">
+        <v>0.2016193879939628</v>
+      </c>
+      <c r="I41">
+        <v>0.2016193879939628</v>
+      </c>
+      <c r="J41">
+        <v>0.03918372258771517</v>
+      </c>
+      <c r="K41">
+        <v>0.1467974870748518</v>
+      </c>
+      <c r="L41">
         <v>5.352158499057595</v>
       </c>
-      <c r="I41">
+      <c r="M41">
         <v>0.03677907407338074</v>
       </c>
-      <c r="J41">
+      <c r="N41">
         <v>3.454689046742713E-32</v>
       </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>2014</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>0.008859713521968734</v>
@@ -1997,27 +2501,39 @@
         <v>0.0152437596590643</v>
       </c>
       <c r="H42">
+        <v>0.0099162752644315</v>
+      </c>
+      <c r="I42">
+        <v>0.0099162752644315</v>
+      </c>
+      <c r="J42">
+        <v>0.02520626528363604</v>
+      </c>
+      <c r="K42">
+        <v>0.01292388054664091</v>
+      </c>
+      <c r="L42">
         <v>2.9221200617863</v>
       </c>
-      <c r="I42">
+      <c r="M42">
         <v>0.4550223597249468</v>
       </c>
-      <c r="J42">
+      <c r="N42">
         <v>6.210934957346303E-32</v>
       </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>2014</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>0.3840188977152267</v>
@@ -2032,27 +2548,39 @@
         <v>0.2516274059851075</v>
       </c>
       <c r="H43">
+        <v>0.4298149242687434</v>
+      </c>
+      <c r="I43">
+        <v>0.4298149242687433</v>
+      </c>
+      <c r="J43">
+        <v>1.147713221759504</v>
+      </c>
+      <c r="K43">
+        <v>0.5472947787834135</v>
+      </c>
+      <c r="L43">
         <v>4.123074893574768</v>
       </c>
-      <c r="I43">
+      <c r="M43">
         <v>0.4550223597249468</v>
       </c>
-      <c r="J43">
+      <c r="N43">
         <v>6.210934957346303E-32</v>
       </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B44">
         <v>2014</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>0.2734382581940334</v>
@@ -2067,27 +2595,39 @@
         <v>0.2431976771413853</v>
       </c>
       <c r="H44">
+        <v>0.3060470329379457</v>
+      </c>
+      <c r="I44">
+        <v>0.3060470329379456</v>
+      </c>
+      <c r="J44">
+        <v>0.5786469633757987</v>
+      </c>
+      <c r="K44">
+        <v>0.2605423312164418</v>
+      </c>
+      <c r="L44">
         <v>5.401705044581078</v>
       </c>
-      <c r="I44">
+      <c r="M44">
         <v>0.4550223597249468</v>
       </c>
-      <c r="J44">
+      <c r="N44">
         <v>6.210934957346303E-32</v>
       </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>2014</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>0.2271348839451092</v>
@@ -2102,27 +2642,39 @@
         <v>0.4899311572144429</v>
       </c>
       <c r="H45">
+        <v>0.2542217675288795</v>
+      </c>
+      <c r="I45">
+        <v>0.2542217675288795</v>
+      </c>
+      <c r="J45">
+        <v>0.4621291207274063</v>
+      </c>
+      <c r="K45">
+        <v>0.1792390094535037</v>
+      </c>
+      <c r="L45">
         <v>5.536268780494029</v>
       </c>
-      <c r="I45">
+      <c r="M45">
         <v>0.4550223597249468</v>
       </c>
-      <c r="J45">
+      <c r="N45">
         <v>6.210934957346303E-32</v>
       </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>2014</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>0.001496489520472188</v>
@@ -2137,27 +2689,39 @@
         <v>0.02603978300180832</v>
       </c>
       <c r="H46">
+        <v>0.02465664009180074</v>
+      </c>
+      <c r="I46">
+        <v>0.02465664009180074</v>
+      </c>
+      <c r="J46">
+        <v>0.002854690674258972</v>
+      </c>
+      <c r="K46">
+        <v>0.03310910541509572</v>
+      </c>
+      <c r="L46">
         <v>1.657362898466172</v>
       </c>
-      <c r="I46">
+      <c r="M46">
         <v>0.02836189988625085</v>
       </c>
-      <c r="J46">
+      <c r="N46">
         <v>3.23023709639857E-32</v>
       </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>2014</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>0.01842562304569891</v>
@@ -2172,27 +2736,39 @@
         <v>0.1801084990958409</v>
       </c>
       <c r="H47">
+        <v>0.3035864599717595</v>
+      </c>
+      <c r="I47">
+        <v>0.3035864599717594</v>
+      </c>
+      <c r="J47">
+        <v>0.05602104142337629</v>
+      </c>
+      <c r="K47">
+        <v>0.367699952311638</v>
+      </c>
+      <c r="L47">
         <v>4.299969985903203</v>
       </c>
-      <c r="I47">
+      <c r="M47">
         <v>0.02836189988625085</v>
       </c>
-      <c r="J47">
+      <c r="N47">
         <v>3.23023709639857E-32</v>
       </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>2014</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>0.02146724147659469</v>
@@ -2207,27 +2783,39 @@
         <v>0.2249547920433996</v>
       </c>
       <c r="H48">
+        <v>0.35370113830477</v>
+      </c>
+      <c r="I48">
+        <v>0.35370113830477</v>
+      </c>
+      <c r="J48">
+        <v>0.05054001828546956</v>
+      </c>
+      <c r="K48">
+        <v>0.3608483651851142</v>
+      </c>
+      <c r="L48">
         <v>5.238809129699708</v>
       </c>
-      <c r="I48">
+      <c r="M48">
         <v>0.02836189988625085</v>
       </c>
-      <c r="J48">
+      <c r="N48">
         <v>3.23023709639857E-32</v>
       </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>2014</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>0.01930381075586495</v>
@@ -2242,27 +2830,39 @@
         <v>0.5688969258589511</v>
       </c>
       <c r="H49">
+        <v>0.3180557616316698</v>
+      </c>
+      <c r="I49">
+        <v>0.3180557616316698</v>
+      </c>
+      <c r="J49">
+        <v>0.03993850743720737</v>
+      </c>
+      <c r="K49">
+        <v>0.238342577088152</v>
+      </c>
+      <c r="L49">
         <v>5.84937175543685</v>
       </c>
-      <c r="I49">
+      <c r="M49">
         <v>0.02836189988625085</v>
       </c>
-      <c r="J49">
+      <c r="N49">
         <v>3.23023709639857E-32</v>
       </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>2014</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>0.008836334557689191</v>
@@ -2277,27 +2877,39 @@
         <v>0.04038520415263436</v>
       </c>
       <c r="H50">
+        <v>0.02344465799419019</v>
+      </c>
+      <c r="I50">
+        <v>0.02344465799419018</v>
+      </c>
+      <c r="J50">
+        <v>0.0242064896049666</v>
+      </c>
+      <c r="K50">
+        <v>0.02174835927550156</v>
+      </c>
+      <c r="L50">
         <v>3.968892322144134</v>
       </c>
-      <c r="I50">
+      <c r="M50">
         <v>0.1711282284780662</v>
       </c>
-      <c r="J50">
+      <c r="N50">
         <v>1.687919492998157E-31</v>
       </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>2014</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>0.1510305982817623</v>
@@ -2312,27 +2924,39 @@
         <v>0.1804002337944279</v>
       </c>
       <c r="H51">
+        <v>0.4007160095916314</v>
+      </c>
+      <c r="I51">
+        <v>0.4007160095916314</v>
+      </c>
+      <c r="J51">
+        <v>0.4635074151255029</v>
+      </c>
+      <c r="K51">
+        <v>0.5679831733064128</v>
+      </c>
+      <c r="L51">
         <v>4.662699128454275</v>
       </c>
-      <c r="I51">
+      <c r="M51">
         <v>0.1711282284780662</v>
       </c>
-      <c r="J51">
+      <c r="N51">
         <v>1.687919492998157E-31</v>
       </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>2014</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>0.09741455845138433</v>
@@ -2347,27 +2971,39 @@
         <v>0.2138217039160566</v>
       </c>
       <c r="H52">
+        <v>0.2584613553999487</v>
+      </c>
+      <c r="I52">
+        <v>0.2584613553999488</v>
+      </c>
+      <c r="J52">
+        <v>0.2097748620714751</v>
+      </c>
+      <c r="K52">
+        <v>0.1941569692451754</v>
+      </c>
+      <c r="L52">
         <v>5.631644160192894</v>
       </c>
-      <c r="I52">
+      <c r="M52">
         <v>0.1711282284780662</v>
       </c>
-      <c r="J52">
+      <c r="N52">
         <v>1.687919492998157E-31</v>
       </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>2014</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>0.1196203410958392</v>
@@ -2382,167 +3018,227 @@
         <v>0.5653928581368811</v>
       </c>
       <c r="H53">
+        <v>0.3173779770142297</v>
+      </c>
+      <c r="I53">
+        <v>0.3173779770142297</v>
+      </c>
+      <c r="J53">
+        <v>0.2197912377940905</v>
+      </c>
+      <c r="K53">
+        <v>0.2161114981729103</v>
+      </c>
+      <c r="L53">
         <v>5.098701614339733</v>
       </c>
-      <c r="I53">
+      <c r="M53">
         <v>0.1711282284780662</v>
       </c>
-      <c r="J53">
+      <c r="N53">
         <v>1.687919492998157E-31</v>
       </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>2014</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D54">
-        <v>0.000975984132153841</v>
+        <v>0.0009759840665141421</v>
       </c>
       <c r="E54">
         <v>0.0003713862176770927</v>
       </c>
       <c r="F54">
-        <v>0.1164254440465427</v>
+        <v>0.1164254948469763</v>
       </c>
       <c r="G54">
         <v>0.03698320413436692</v>
       </c>
       <c r="H54">
-        <v>1.863362601439426</v>
+        <v>0.0690073320867825</v>
       </c>
       <c r="I54">
-        <v>0.005358446337429591</v>
+        <v>0.03694410713327774</v>
       </c>
       <c r="J54">
-        <v>3.375686495204242</v>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>0.00113126718264377</v>
+      </c>
+      <c r="K54">
+        <v>0.03882146825057688</v>
+      </c>
+      <c r="L54">
+        <v>1.863364140858415</v>
+      </c>
+      <c r="M54">
+        <v>0.005358446265717303</v>
+      </c>
+      <c r="N54">
+        <v>3.375686495216472</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>2014</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>0.005826413714823943</v>
+        <v>0.005826404684828613</v>
       </c>
       <c r="E55">
         <v>0.004114638670667071</v>
       </c>
       <c r="F55">
-        <v>0.3215524716558879</v>
+        <v>0.3215526543485859</v>
       </c>
       <c r="G55">
         <v>0.2915051679586563</v>
       </c>
       <c r="H55">
-        <v>4.115639176199968</v>
+        <v>0.4119582037788601</v>
       </c>
       <c r="I55">
-        <v>0.005358446337429591</v>
+        <v>0.4093088128435088</v>
       </c>
       <c r="J55">
-        <v>3.375686495204242</v>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>0.01778389095045196</v>
+      </c>
+      <c r="K55">
+        <v>0.5019912827963423</v>
+      </c>
+      <c r="L55">
+        <v>4.115634325091166</v>
+      </c>
+      <c r="M55">
+        <v>0.005358446265717303</v>
+      </c>
+      <c r="N55">
+        <v>3.375686495216472</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>2014</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D56">
-        <v>0.003179521641331006</v>
+        <v>0.003179516751492603</v>
       </c>
       <c r="E56">
         <v>0.003179518030566522</v>
       </c>
       <c r="F56">
-        <v>0.1236958510818891</v>
+        <v>0.1236958695933388</v>
       </c>
       <c r="G56">
         <v>0.2222222222222222</v>
       </c>
       <c r="H56">
-        <v>6.969914950549267</v>
+        <v>0.2248089655084125</v>
       </c>
       <c r="I56">
-        <v>0.005358446337429591</v>
+        <v>0.3162865210457784</v>
       </c>
       <c r="J56">
-        <v>3.375686495204242</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>0.01117822704322254</v>
+      </c>
+      <c r="K56">
+        <v>0.2784420135031194</v>
+      </c>
+      <c r="L56">
+        <v>6.969906211491795</v>
+      </c>
+      <c r="M56">
+        <v>0.005358446265717303</v>
+      </c>
+      <c r="N56">
+        <v>3.375686495216472</v>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>2014</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D57">
-        <v>0.004161284370961831</v>
+        <v>0.004161288227459279</v>
       </c>
       <c r="E57">
         <v>0.0023871081395463</v>
       </c>
       <c r="F57">
-        <v>0.4383262332156804</v>
+        <v>0.4383259812110989</v>
       </c>
       <c r="G57">
         <v>0.4492894056847546</v>
       </c>
       <c r="H57">
-        <v>6.255480245191487</v>
+        <v>0.294225498625945</v>
       </c>
       <c r="I57">
-        <v>0.005358446337429591</v>
+        <v>0.2374605589774351</v>
       </c>
       <c r="J57">
-        <v>3.375686495204242</v>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>0.008029841021278584</v>
+      </c>
+      <c r="K57">
+        <v>0.1807452354499615</v>
+      </c>
+      <c r="L57">
+        <v>6.255491874034139</v>
+      </c>
+      <c r="M57">
+        <v>0.005358446265717303</v>
+      </c>
+      <c r="N57">
+        <v>3.375686495216472</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>2014</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>0.001387895227415011</v>
@@ -2557,27 +3253,39 @@
         <v>0.04506704022413448</v>
       </c>
       <c r="H58">
+        <v>0.0252143439072017</v>
+      </c>
+      <c r="I58">
+        <v>0.0252143439072017</v>
+      </c>
+      <c r="J58">
+        <v>0.002121512808442864</v>
+      </c>
+      <c r="K58">
+        <v>0.0225666330088209</v>
+      </c>
+      <c r="L58">
         <v>1.959008259954759</v>
       </c>
-      <c r="I58">
+      <c r="M58">
         <v>0.02504066121909256</v>
       </c>
-      <c r="J58">
+      <c r="N58">
         <v>6.148188515513361E-32</v>
       </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>2014</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>0.02218226432040925</v>
@@ -2592,27 +3300,39 @@
         <v>0.2316589953972383</v>
       </c>
       <c r="H59">
+        <v>0.402992409057404</v>
+      </c>
+      <c r="I59">
+        <v>0.4029924090574041</v>
+      </c>
+      <c r="J59">
+        <v>0.06939559705514722</v>
+      </c>
+      <c r="K59">
+        <v>0.5121454018937301</v>
+      </c>
+      <c r="L59">
         <v>4.900971781978922</v>
       </c>
-      <c r="I59">
+      <c r="M59">
         <v>0.02504066121909256</v>
       </c>
-      <c r="J59">
+      <c r="N59">
         <v>6.148188515513361E-32</v>
       </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B60">
         <v>2014</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>0.01544864483517974</v>
@@ -2627,27 +3347,39 @@
         <v>0.2312587552531519</v>
       </c>
       <c r="H60">
+        <v>0.2806605542551953</v>
+      </c>
+      <c r="I60">
+        <v>0.2806605542551953</v>
+      </c>
+      <c r="J60">
+        <v>0.03348828477806452</v>
+      </c>
+      <c r="K60">
+        <v>0.2357160547924327</v>
+      </c>
+      <c r="L60">
         <v>5.190340424930975</v>
       </c>
-      <c r="I60">
+      <c r="M60">
         <v>0.02504066121909256</v>
       </c>
-      <c r="J60">
+      <c r="N60">
         <v>6.148188515513361E-32</v>
       </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B61">
         <v>2014</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>0.01602507193291319</v>
@@ -2662,27 +3394,39 @@
         <v>0.4920152091254753</v>
       </c>
       <c r="H61">
+        <v>0.2911326927801989</v>
+      </c>
+      <c r="I61">
+        <v>0.2911326927801989</v>
+      </c>
+      <c r="J61">
+        <v>0.03279417780637744</v>
+      </c>
+      <c r="K61">
+        <v>0.2295719103050163</v>
+      </c>
+      <c r="L61">
         <v>5.170395653109757</v>
       </c>
-      <c r="I61">
+      <c r="M61">
         <v>0.02504066121909256</v>
       </c>
-      <c r="J61">
+      <c r="N61">
         <v>6.148188515513361E-32</v>
       </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B62">
         <v>2014</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <v>0.01384472508658826</v>
@@ -2697,27 +3441,39 @@
         <v>0.02795383769921231</v>
       </c>
       <c r="H62">
+        <v>0.02290887208048697</v>
+      </c>
+      <c r="I62">
+        <v>0.02290887208048697</v>
+      </c>
+      <c r="J62">
+        <v>0.04006241882142905</v>
+      </c>
+      <c r="K62">
+        <v>0.02920208823348398</v>
+      </c>
+      <c r="L62">
         <v>2.826017892982755</v>
       </c>
-      <c r="I62">
+      <c r="M62">
         <v>0.2934736092530703</v>
       </c>
-      <c r="J62">
+      <c r="N62">
         <v>2.257577911923376E-32</v>
       </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B63">
         <v>2014</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D63">
         <v>0.1909797366353585</v>
@@ -2732,27 +3488,39 @@
         <v>0.180472614031874</v>
       </c>
       <c r="H63">
+        <v>0.3160142457998549</v>
+      </c>
+      <c r="I63">
+        <v>0.3160142457998549</v>
+      </c>
+      <c r="J63">
+        <v>0.5718228307193812</v>
+      </c>
+      <c r="K63">
+        <v>0.433754779737392</v>
+      </c>
+      <c r="L63">
         <v>3.918915801684413</v>
       </c>
-      <c r="I63">
+      <c r="M63">
         <v>0.2934736092530703</v>
       </c>
-      <c r="J63">
+      <c r="N63">
         <v>2.257577911923376E-32</v>
       </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B64">
         <v>2014</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D64">
         <v>0.2147881921722232</v>
@@ -2767,27 +3535,39 @@
         <v>0.2626854735299505</v>
       </c>
       <c r="H64">
+        <v>0.3554101066000352</v>
+      </c>
+      <c r="I64">
+        <v>0.3554101066000353</v>
+      </c>
+      <c r="J64">
+        <v>0.4744124075849426</v>
+      </c>
+      <c r="K64">
+        <v>0.3198604276543764</v>
+      </c>
+      <c r="L64">
         <v>5.46223553441421</v>
       </c>
-      <c r="I64">
+      <c r="M64">
         <v>0.2934736092530703</v>
       </c>
-      <c r="J64">
+      <c r="N64">
         <v>2.257577911923376E-32</v>
       </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B65">
         <v>2014</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D65">
         <v>0.1847263566842138</v>
@@ -2802,27 +3582,39 @@
         <v>0.5288880747389632</v>
       </c>
       <c r="H65">
+        <v>0.3056667755196229</v>
+      </c>
+      <c r="I65">
+        <v>0.3056667755196229</v>
+      </c>
+      <c r="J65">
+        <v>0.3715280876506359</v>
+      </c>
+      <c r="K65">
+        <v>0.2171827043747474</v>
+      </c>
+      <c r="L65">
         <v>5.794271902032643</v>
       </c>
-      <c r="I65">
+      <c r="M65">
         <v>0.2934736092530703</v>
       </c>
-      <c r="J65">
+      <c r="N65">
         <v>2.257577911923376E-32</v>
       </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B66">
         <v>2014</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D66">
         <v>0.005355332044817194</v>
@@ -2837,27 +3629,39 @@
         <v>0.01389702532057541</v>
       </c>
       <c r="H66">
+        <v>0.009030225891283078</v>
+      </c>
+      <c r="I66">
+        <v>0.009030225891283078</v>
+      </c>
+      <c r="J66">
+        <v>0.01200903136712011</v>
+      </c>
+      <c r="K66">
+        <v>0.0112778926114005</v>
+      </c>
+      <c r="L66">
         <v>2.238154597238159</v>
       </c>
-      <c r="I66">
+      <c r="M66">
         <v>0.3222049767560288</v>
       </c>
-      <c r="J66">
+      <c r="N66">
         <v>6.313757152025018E-32</v>
       </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B67">
         <v>2014</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D67">
         <v>0.175915843543387</v>
@@ -2872,27 +3676,39 @@
         <v>0.1634446397188049</v>
       </c>
       <c r="H67">
+        <v>0.2966314304618664</v>
+      </c>
+      <c r="I67">
+        <v>0.2966314304618664</v>
+      </c>
+      <c r="J67">
+        <v>0.5242732245879854</v>
+      </c>
+      <c r="K67">
+        <v>0.378590508896179</v>
+      </c>
+      <c r="L67">
         <v>4.492834449432219</v>
       </c>
-      <c r="I67">
+      <c r="M67">
         <v>0.3222049767560288</v>
       </c>
-      <c r="J67">
+      <c r="N67">
         <v>6.313757152025018E-32</v>
       </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B68">
         <v>2014</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <v>0.2205588352766816</v>
@@ -2907,27 +3723,39 @@
         <v>0.29203280609256</v>
       </c>
       <c r="H68">
+        <v>0.3719089849515983</v>
+      </c>
+      <c r="I68">
+        <v>0.3719089849515983</v>
+      </c>
+      <c r="J68">
+        <v>0.4857006893334451</v>
+      </c>
+      <c r="K68">
+        <v>0.3265824171120841</v>
+      </c>
+      <c r="L68">
         <v>4.875047284904034</v>
       </c>
-      <c r="I68">
+      <c r="M68">
         <v>0.3222049767560288</v>
       </c>
-      <c r="J68">
+      <c r="N68">
         <v>6.313757152025018E-32</v>
       </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B69">
         <v>2014</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D69">
         <v>0.191215180838095</v>
@@ -2942,27 +3770,39 @@
         <v>0.5306255288680596</v>
       </c>
       <c r="H69">
+        <v>0.3224293586952522</v>
+      </c>
+      <c r="I69">
+        <v>0.3224293586952522</v>
+      </c>
+      <c r="J69">
+        <v>0.4144039500752957</v>
+      </c>
+      <c r="K69">
+        <v>0.2835491813803365</v>
+      </c>
+      <c r="L69">
         <v>5.116229383631429</v>
       </c>
-      <c r="I69">
+      <c r="M69">
         <v>0.3222049767560288</v>
       </c>
-      <c r="J69">
+      <c r="N69">
         <v>6.313757152025018E-32</v>
       </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B70">
         <v>2014</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D70">
         <v>0.002573084739073893</v>
@@ -2977,27 +3817,39 @@
         <v>0.1232972124503485</v>
       </c>
       <c r="H70">
+        <v>0.04310572204518427</v>
+      </c>
+      <c r="I70">
+        <v>0.04310572204518427</v>
+      </c>
+      <c r="J70">
+        <v>0.005326254185811754</v>
+      </c>
+      <c r="K70">
+        <v>0.04900295468004763</v>
+      </c>
+      <c r="L70">
         <v>2.390472209387775</v>
       </c>
-      <c r="I70">
+      <c r="M70">
         <v>0.03518819420715347</v>
       </c>
-      <c r="J70">
+      <c r="N70">
         <v>2.840745654263362E-32</v>
       </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="O70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B71">
         <v>2014</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D71">
         <v>0.01679492805493302</v>
@@ -3012,27 +3864,39 @@
         <v>0.1419792965260358</v>
       </c>
       <c r="H71">
+        <v>0.2813578151978693</v>
+      </c>
+      <c r="I71">
+        <v>0.2813578151978693</v>
+      </c>
+      <c r="J71">
+        <v>0.0470935206524611</v>
+      </c>
+      <c r="K71">
+        <v>0.4306143696788696</v>
+      </c>
+      <c r="L71">
         <v>3.427839502784868</v>
       </c>
-      <c r="I71">
+      <c r="M71">
         <v>0.03518819420715347</v>
       </c>
-      <c r="J71">
+      <c r="N71">
         <v>2.840745654263362E-32</v>
       </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="O71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B72">
         <v>2014</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D72">
         <v>0.01867416434299238</v>
@@ -3047,27 +3911,39 @@
         <v>0.1706800046433925</v>
       </c>
       <c r="H72">
+        <v>0.3128398087211243</v>
+      </c>
+      <c r="I72">
+        <v>0.3128398087211243</v>
+      </c>
+      <c r="J72">
+        <v>0.0430199106620363</v>
+      </c>
+      <c r="K72">
+        <v>0.2338280618190386</v>
+      </c>
+      <c r="L72">
         <v>6.275568358749235</v>
       </c>
-      <c r="I72">
+      <c r="M72">
         <v>0.03518819420715347</v>
       </c>
-      <c r="J72">
+      <c r="N72">
         <v>2.840745654263362E-32</v>
       </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="O72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B73">
         <v>2014</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D73">
         <v>0.02165023994806275</v>
@@ -3082,27 +3958,39 @@
         <v>0.5640434863802232</v>
       </c>
       <c r="H73">
+        <v>0.3626966540358221</v>
+      </c>
+      <c r="I73">
+        <v>0.3626966540358221</v>
+      </c>
+      <c r="J73">
+        <v>0.04974465191847215</v>
+      </c>
+      <c r="K73">
+        <v>0.2865546138220442</v>
+      </c>
+      <c r="L73">
         <v>5.779576407393328</v>
       </c>
-      <c r="I73">
+      <c r="M73">
         <v>0.03518819420715347</v>
       </c>
-      <c r="J73">
+      <c r="N73">
         <v>2.840745654263362E-32</v>
       </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="O73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B74">
         <v>2014</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D74">
         <v>0.002956177294106562</v>
@@ -3111,33 +3999,45 @@
         <v>0.002956177294106561</v>
       </c>
       <c r="F74">
-        <v>0.08439295036980386</v>
+        <v>0.08439295036980382</v>
       </c>
       <c r="G74">
         <v>0.06574866846959623</v>
       </c>
       <c r="H74">
-        <v>1.748784483049896</v>
+        <v>0.04485790238960759</v>
       </c>
       <c r="I74">
-        <v>0.03502721262686254</v>
+        <v>0.04485790238960759</v>
       </c>
       <c r="J74">
-        <v>1.185479508911596E-31</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>0.006926674338824509</v>
+      </c>
+      <c r="K74">
+        <v>0.04500765595510697</v>
+      </c>
+      <c r="L74">
+        <v>1.748784483049897</v>
+      </c>
+      <c r="M74">
+        <v>0.03502721262686252</v>
+      </c>
+      <c r="N74">
+        <v>9.331706400748737E-32</v>
+      </c>
+      <c r="O74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>2014</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <v>0.03229293069494057</v>
@@ -3146,33 +4046,45 @@
         <v>0.03229293069494058</v>
       </c>
       <c r="F75">
-        <v>0.1963143162525136</v>
+        <v>0.1963143162525135</v>
       </c>
       <c r="G75">
         <v>0.2796650802461117</v>
       </c>
       <c r="H75">
-        <v>5.557653418693306</v>
+        <v>0.4900224137016153</v>
       </c>
       <c r="I75">
-        <v>0.03502721262686254</v>
+        <v>0.4900224137016154</v>
       </c>
       <c r="J75">
-        <v>1.185479508911596E-31</v>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>0.09812067219958463</v>
+      </c>
+      <c r="K75">
+        <v>0.6108314127981528</v>
+      </c>
+      <c r="L75">
+        <v>5.55765341869331</v>
+      </c>
+      <c r="M75">
+        <v>0.03502721262686252</v>
+      </c>
+      <c r="N75">
+        <v>9.331706400748737E-32</v>
+      </c>
+      <c r="O75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B76">
         <v>2014</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D76">
         <v>0.01526703729709437</v>
@@ -3187,62 +4099,86 @@
         <v>0.2117552582165169</v>
       </c>
       <c r="H76">
+        <v>0.2316665073562638</v>
+      </c>
+      <c r="I76">
+        <v>0.2316665073562639</v>
+      </c>
+      <c r="J76">
+        <v>0.03554494193920823</v>
+      </c>
+      <c r="K76">
+        <v>0.1722926717963774</v>
+      </c>
+      <c r="L76">
         <v>5.005557598655322</v>
       </c>
-      <c r="I76">
-        <v>0.03502721262686254</v>
-      </c>
-      <c r="J76">
-        <v>1.185479508911596E-31</v>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="M76">
+        <v>0.03502721262686252</v>
+      </c>
+      <c r="N76">
+        <v>9.331706400748737E-32</v>
+      </c>
+      <c r="O76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B77">
         <v>2014</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D77">
-        <v>0.01538478045111345</v>
+        <v>0.01538478045111344</v>
       </c>
       <c r="E77">
         <v>0.01538478045111344</v>
       </c>
       <c r="F77">
-        <v>0.4843110214713158</v>
+        <v>0.4843110214713159</v>
       </c>
       <c r="G77">
         <v>0.4428309930677752</v>
       </c>
       <c r="H77">
+        <v>0.2334531765525132</v>
+      </c>
+      <c r="I77">
+        <v>0.2334531765525132</v>
+      </c>
+      <c r="J77">
+        <v>0.0293985989853494</v>
+      </c>
+      <c r="K77">
+        <v>0.1718682594503629</v>
+      </c>
+      <c r="L77">
         <v>3.957701010169358</v>
       </c>
-      <c r="I77">
-        <v>0.03502721262686254</v>
-      </c>
-      <c r="J77">
-        <v>1.185479508911596E-31</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="M77">
+        <v>0.03502721262686252</v>
+      </c>
+      <c r="N77">
+        <v>9.331706400748737E-32</v>
+      </c>
+      <c r="O77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B78">
         <v>2014</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D78">
         <v>0.05478140781004361</v>
@@ -3257,27 +4193,39 @@
         <v>0.3111547605023156</v>
       </c>
       <c r="H78">
+        <v>0.08410807289516523</v>
+      </c>
+      <c r="I78">
+        <v>0.08410807289516523</v>
+      </c>
+      <c r="J78">
+        <v>0.09194668618937338</v>
+      </c>
+      <c r="K78">
+        <v>0.02992871561459489</v>
+      </c>
+      <c r="L78">
         <v>4.228136891176954</v>
       </c>
-      <c r="I78">
+      <c r="M78">
         <v>1.479045582841916</v>
       </c>
-      <c r="J78">
+      <c r="N78">
         <v>3.964264779846463E-32</v>
       </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="O78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B79">
         <v>2014</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D79">
         <v>0.3600400605140537</v>
@@ -3292,27 +4240,39 @@
         <v>0.178032293822413</v>
       </c>
       <c r="H79">
+        <v>0.5527838159964883</v>
+      </c>
+      <c r="I79">
+        <v>0.5527838159964884</v>
+      </c>
+      <c r="J79">
+        <v>1.061741977244341</v>
+      </c>
+      <c r="K79">
+        <v>0.6765503252490236</v>
+      </c>
+      <c r="L79">
         <v>3.471363755182529</v>
       </c>
-      <c r="I79">
+      <c r="M79">
         <v>1.479045582841916</v>
       </c>
-      <c r="J79">
+      <c r="N79">
         <v>3.964264779846463E-32</v>
       </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="O79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B80">
         <v>2014</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D80">
         <v>0.09033939565438444</v>
@@ -3327,27 +4287,39 @@
         <v>0.08427190194280008</v>
       </c>
       <c r="H80">
+        <v>0.1387016650129074</v>
+      </c>
+      <c r="I80">
+        <v>0.1387016650129075</v>
+      </c>
+      <c r="J80">
+        <v>0.1817593869969941</v>
+      </c>
+      <c r="K80">
+        <v>0.1138621363425171</v>
+      </c>
+      <c r="L80">
         <v>3.09776619417152</v>
       </c>
-      <c r="I80">
+      <c r="M80">
         <v>1.479045582841916</v>
       </c>
-      <c r="J80">
+      <c r="N80">
         <v>3.964264779846463E-32</v>
       </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="O80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B81">
         <v>2014</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D81">
         <v>0.1461607740564874</v>
@@ -3362,27 +4334,39 @@
         <v>0.4265410437324713</v>
       </c>
       <c r="H81">
+        <v>0.2244064460954391</v>
+      </c>
+      <c r="I81">
+        <v>0.2244064460954391</v>
+      </c>
+      <c r="J81">
+        <v>0.3093132208439585</v>
+      </c>
+      <c r="K81">
+        <v>0.1796588227938643</v>
+      </c>
+      <c r="L81">
         <v>2.640456362400907</v>
       </c>
-      <c r="I81">
+      <c r="M81">
         <v>1.479045582841916</v>
       </c>
-      <c r="J81">
+      <c r="N81">
         <v>3.964264779846463E-32</v>
       </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="O81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B82">
         <v>2014</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D82">
         <v>0.178012346514896</v>
@@ -3397,27 +4381,39 @@
         <v>0.4478124320311608</v>
       </c>
       <c r="H82">
+        <v>0.1042694503385756</v>
+      </c>
+      <c r="I82">
+        <v>0.1042694503385756</v>
+      </c>
+      <c r="J82">
+        <v>0.3035867740069534</v>
+      </c>
+      <c r="K82">
+        <v>0.04774623877970658</v>
+      </c>
+      <c r="L82">
         <v>2.623069950503163</v>
       </c>
-      <c r="I82">
+      <c r="M82">
         <v>5.64239327967684</v>
       </c>
-      <c r="J82">
+      <c r="N82">
         <v>1.90721590471533E-31</v>
       </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="O82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B83">
         <v>2014</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D83">
         <v>0.844904766995225</v>
@@ -3432,27 +4428,39 @@
         <v>0.2249427312295466</v>
       </c>
       <c r="H83">
+        <v>0.4948968842206819</v>
+      </c>
+      <c r="I83">
+        <v>0.4948968842206817</v>
+      </c>
+      <c r="J83">
+        <v>2.649071725924477</v>
+      </c>
+      <c r="K83">
+        <v>0.7474633436818259</v>
+      </c>
+      <c r="L83">
         <v>2.846031291721337</v>
       </c>
-      <c r="I83">
+      <c r="M83">
         <v>5.64239327967684</v>
       </c>
-      <c r="J83">
+      <c r="N83">
         <v>1.90721590471533E-31</v>
       </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="O83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B84">
         <v>2014</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D84">
         <v>0.3183056679111697</v>
@@ -3467,27 +4475,39 @@
         <v>0.1152377408175379</v>
       </c>
       <c r="H84">
+        <v>0.1864452532789547</v>
+      </c>
+      <c r="I84">
+        <v>0.1864452532789548</v>
+      </c>
+      <c r="J84">
+        <v>0.6511168641766393</v>
+      </c>
+      <c r="K84">
+        <v>0.1227552953057439</v>
+      </c>
+      <c r="L84">
         <v>3.760244692977688</v>
       </c>
-      <c r="I84">
+      <c r="M84">
         <v>5.64239327967684</v>
       </c>
-      <c r="J84">
+      <c r="N84">
         <v>1.90721590471533E-31</v>
       </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="O84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B85">
         <v>2014</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D85">
         <v>0.3660111776805198</v>
@@ -3502,27 +4522,39 @@
         <v>0.2120070959217546</v>
       </c>
       <c r="H85">
+        <v>0.2143884121617879</v>
+      </c>
+      <c r="I85">
+        <v>0.2143884121617879</v>
+      </c>
+      <c r="J85">
+        <v>0.6266809760611344</v>
+      </c>
+      <c r="K85">
+        <v>0.08203512223272359</v>
+      </c>
+      <c r="L85">
         <v>3.390557755935606</v>
       </c>
-      <c r="I85">
+      <c r="M85">
         <v>5.64239327967684</v>
       </c>
-      <c r="J85">
+      <c r="N85">
         <v>1.90721590471533E-31</v>
       </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="O85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B86">
         <v>2014</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D86">
         <v>0.001464843193038099</v>
@@ -3537,27 +4569,39 @@
         <v>0.05700748572592736</v>
       </c>
       <c r="H86">
+        <v>0.02422307287130571</v>
+      </c>
+      <c r="I86">
+        <v>0.02422307287130572</v>
+      </c>
+      <c r="J86">
+        <v>0.002679560412762149</v>
+      </c>
+      <c r="K86">
+        <v>0.03115353792485739</v>
+      </c>
+      <c r="L86">
         <v>1.536874771792001</v>
       </c>
-      <c r="I86">
+      <c r="M86">
         <v>0.01559846357921115</v>
       </c>
-      <c r="J86">
+      <c r="N86">
         <v>3.889412960263431E-32</v>
       </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="O86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B87">
         <v>2014</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D87">
         <v>0.02149335505039798</v>
@@ -3566,33 +4610,45 @@
         <v>0.02149335505039798</v>
       </c>
       <c r="F87">
-        <v>0.1831840176356296</v>
+        <v>0.1831840176356295</v>
       </c>
       <c r="G87">
         <v>0.1850954129686414</v>
       </c>
       <c r="H87">
+        <v>0.3554203672509374</v>
+      </c>
+      <c r="I87">
+        <v>0.3554203672509375</v>
+      </c>
+      <c r="J87">
+        <v>0.06677530261852256</v>
+      </c>
+      <c r="K87">
+        <v>0.3946905199641729</v>
+      </c>
+      <c r="L87">
         <v>5.964242147921397</v>
       </c>
-      <c r="I87">
+      <c r="M87">
         <v>0.01559846357921115</v>
       </c>
-      <c r="J87">
+      <c r="N87">
         <v>3.889412960263431E-32</v>
       </c>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="O87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B88">
         <v>2014</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D88">
         <v>0.02420281429794175</v>
@@ -3607,27 +4663,39 @@
         <v>0.2333477858862985</v>
       </c>
       <c r="H88">
-        <v>7.679165067194848</v>
+        <v>0.4002247730105502</v>
       </c>
       <c r="I88">
+        <v>0.4002247730105503</v>
+      </c>
+      <c r="J88">
+        <v>0.06174348509307355</v>
+      </c>
+      <c r="K88">
+        <v>0.4207500117852261</v>
+      </c>
+      <c r="L88">
+        <v>7.67916506719485</v>
+      </c>
+      <c r="M88">
         <v>0.01559846357921115</v>
       </c>
-      <c r="J88">
+      <c r="N88">
         <v>3.889412960263431E-32</v>
       </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="O88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B89">
         <v>2014</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D89">
         <v>0.01331204142748217</v>
@@ -3642,27 +4710,39 @@
         <v>0.5245493154191327</v>
       </c>
       <c r="H89">
+        <v>0.2201317868672066</v>
+      </c>
+      <c r="I89">
+        <v>0.2201317868672066</v>
+      </c>
+      <c r="J89">
+        <v>0.02403591253979329</v>
+      </c>
+      <c r="K89">
+        <v>0.1534059303257437</v>
+      </c>
+      <c r="L89">
         <v>5.358043408071627</v>
       </c>
-      <c r="I89">
+      <c r="M89">
         <v>0.01559846357921115</v>
       </c>
-      <c r="J89">
+      <c r="N89">
         <v>3.889412960263431E-32</v>
       </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="O89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B90">
         <v>2014</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D90">
         <v>0.009913525674485892</v>
@@ -3677,27 +4757,39 @@
         <v>0.0371507245068388</v>
       </c>
       <c r="H90">
+        <v>0.0185070633366279</v>
+      </c>
+      <c r="I90">
+        <v>0.0185070633366279</v>
+      </c>
+      <c r="J90">
+        <v>0.02280877675140282</v>
+      </c>
+      <c r="K90">
+        <v>0.01558479722586532</v>
+      </c>
+      <c r="L90">
         <v>3.668747316725848</v>
       </c>
-      <c r="I90">
+      <c r="M90">
         <v>0.2286209300116318</v>
       </c>
-      <c r="J90">
+      <c r="N90">
         <v>4.735618784214186E-32</v>
       </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="O90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B91">
         <v>2014</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D91">
         <v>0.2153724697992042</v>
@@ -3712,27 +4804,39 @@
         <v>0.2405256008831145</v>
       </c>
       <c r="H91">
+        <v>0.4020680503000321</v>
+      </c>
+      <c r="I91">
+        <v>0.4020680503000321</v>
+      </c>
+      <c r="J91">
+        <v>0.6627752549566519</v>
+      </c>
+      <c r="K91">
+        <v>0.5499742899967264</v>
+      </c>
+      <c r="L91">
         <v>4.299816363067618</v>
       </c>
-      <c r="I91">
+      <c r="M91">
         <v>0.2286209300116318</v>
       </c>
-      <c r="J91">
+      <c r="N91">
         <v>4.735618784214186E-32</v>
       </c>
-      <c r="K91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="O91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B92">
         <v>2014</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D92">
         <v>0.1582855327111068</v>
@@ -3747,27 +4851,39 @@
         <v>0.220347746867857</v>
       </c>
       <c r="H92">
+        <v>0.2954953137102011</v>
+      </c>
+      <c r="I92">
+        <v>0.2954953137102011</v>
+      </c>
+      <c r="J92">
+        <v>0.3232573926015892</v>
+      </c>
+      <c r="K92">
+        <v>0.2181320462307999</v>
+      </c>
+      <c r="L92">
         <v>6.200272695264212</v>
       </c>
-      <c r="I92">
+      <c r="M92">
         <v>0.2286209300116318</v>
       </c>
-      <c r="J92">
+      <c r="N92">
         <v>4.735618784214186E-32</v>
       </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="O92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B93">
         <v>2014</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D93">
         <v>0.1520902077787757</v>
@@ -3782,27 +4898,39 @@
         <v>0.5019759277421897</v>
       </c>
       <c r="H93">
+        <v>0.2839295726531389</v>
+      </c>
+      <c r="I93">
+        <v>0.2839295726531388</v>
+      </c>
+      <c r="J93">
+        <v>0.2912261621427217</v>
+      </c>
+      <c r="K93">
+        <v>0.2163088665466084</v>
+      </c>
+      <c r="L93">
         <v>5.489718388597883</v>
       </c>
-      <c r="I93">
+      <c r="M93">
         <v>0.2286209300116318</v>
       </c>
-      <c r="J93">
+      <c r="N93">
         <v>4.735618784214186E-32</v>
       </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="O93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B94">
         <v>2014</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D94">
         <v>0.01568318937564468</v>
@@ -3817,27 +4945,39 @@
         <v>0.04767408664528866</v>
       </c>
       <c r="H94">
+        <v>0.01366177217317901</v>
+      </c>
+      <c r="I94">
+        <v>0.01366177217317901</v>
+      </c>
+      <c r="J94">
+        <v>0.03743844054822589</v>
+      </c>
+      <c r="K94">
+        <v>0.01374361111424414</v>
+      </c>
+      <c r="L94">
         <v>3.14204229819096</v>
       </c>
-      <c r="I94">
+      <c r="M94">
         <v>0.6082960181932116</v>
       </c>
-      <c r="J94">
+      <c r="N94">
         <v>5.2484765224661E-32</v>
       </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="O94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B95">
         <v>2014</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D95">
         <v>0.4846113711173968</v>
@@ -3852,27 +4992,39 @@
         <v>0.2396061218320848</v>
       </c>
       <c r="H95">
+        <v>0.4221494739468851</v>
+      </c>
+      <c r="I95">
+        <v>0.422149473946885</v>
+      </c>
+      <c r="J95">
+        <v>1.485083237005307</v>
+      </c>
+      <c r="K95">
+        <v>0.5762341299939412</v>
+      </c>
+      <c r="L95">
         <v>4.377397779568631</v>
       </c>
-      <c r="I95">
+      <c r="M95">
         <v>0.6082960181932116</v>
       </c>
-      <c r="J95">
+      <c r="N95">
         <v>5.2484765224661E-32</v>
       </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="O95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B96">
         <v>2014</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D96">
         <v>0.2874230845407135</v>
@@ -3887,27 +5039,39 @@
         <v>0.2159821713486378</v>
       </c>
       <c r="H96">
+        <v>0.2503769229749663</v>
+      </c>
+      <c r="I96">
+        <v>0.2503769229749663</v>
+      </c>
+      <c r="J96">
+        <v>0.5357589259247282</v>
+      </c>
+      <c r="K96">
+        <v>0.1706061169751361</v>
+      </c>
+      <c r="L96">
         <v>4.806638625023608</v>
       </c>
-      <c r="I96">
+      <c r="M96">
         <v>0.6082960181932116</v>
       </c>
-      <c r="J96">
+      <c r="N96">
         <v>5.2484765224661E-32</v>
       </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="O96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B97">
         <v>2014</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D97">
         <v>0.3602439207749727</v>
@@ -3922,27 +5086,39 @@
         <v>0.4967376201739887</v>
       </c>
       <c r="H97">
+        <v>0.3138118309049697</v>
+      </c>
+      <c r="I97">
+        <v>0.3138118309049697</v>
+      </c>
+      <c r="J97">
+        <v>0.7641341068844671</v>
+      </c>
+      <c r="K97">
+        <v>0.2394161419166787</v>
+      </c>
+      <c r="L97">
         <v>5.458198017321793</v>
       </c>
-      <c r="I97">
+      <c r="M97">
         <v>0.6082960181932116</v>
       </c>
-      <c r="J97">
+      <c r="N97">
         <v>5.2484765224661E-32</v>
       </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="O97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B98">
         <v>2014</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D98">
         <v>0.008726993326567048</v>
@@ -3957,27 +5133,39 @@
         <v>0.05846824000981635</v>
       </c>
       <c r="H98">
+        <v>0.01644919219465974</v>
+      </c>
+      <c r="I98">
+        <v>0.01644919219465975</v>
+      </c>
+      <c r="J98">
+        <v>0.01762737962300315</v>
+      </c>
+      <c r="K98">
+        <v>0.01221378380451082</v>
+      </c>
+      <c r="L98">
         <v>2.971488276718402</v>
       </c>
-      <c r="I98">
+      <c r="M98">
         <v>0.224659947022198</v>
       </c>
-      <c r="J98">
+      <c r="N98">
         <v>3.610192852791397E-32</v>
       </c>
-      <c r="K98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B99">
         <v>2014</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D99">
         <v>0.3151550915199709</v>
@@ -3992,27 +5180,39 @@
         <v>0.2387542230766085</v>
       </c>
       <c r="H99">
+        <v>0.5940243652709243</v>
+      </c>
+      <c r="I99">
+        <v>0.5940243652709243</v>
+      </c>
+      <c r="J99">
+        <v>0.9781060711047819</v>
+      </c>
+      <c r="K99">
+        <v>0.7177107121879981</v>
+      </c>
+      <c r="L99">
         <v>5.59919808254776</v>
       </c>
-      <c r="I99">
+      <c r="M99">
         <v>0.224659947022198</v>
       </c>
-      <c r="J99">
+      <c r="N99">
         <v>3.610192852791397E-32</v>
       </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="O99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B100">
         <v>2014</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D100">
         <v>0.1017261555632038</v>
@@ -4027,27 +5227,39 @@
         <v>0.2363047159393022</v>
       </c>
       <c r="H100">
+        <v>0.1917399293739611</v>
+      </c>
+      <c r="I100">
+        <v>0.1917399293739611</v>
+      </c>
+      <c r="J100">
+        <v>0.2049473486137528</v>
+      </c>
+      <c r="K100">
+        <v>0.1402126135295572</v>
+      </c>
+      <c r="L100">
         <v>5.137630293792973</v>
       </c>
-      <c r="I100">
+      <c r="M100">
         <v>0.224659947022198</v>
       </c>
-      <c r="J100">
+      <c r="N100">
         <v>3.610192852791397E-32</v>
       </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="O100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B101">
         <v>2014</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D101">
         <v>0.1049341244244584</v>
@@ -4062,307 +5274,415 @@
         <v>0.466472820974273</v>
       </c>
       <c r="H101">
+        <v>0.1977865131604549</v>
+      </c>
+      <c r="I101">
+        <v>0.1977865131604549</v>
+      </c>
+      <c r="J101">
+        <v>0.1783626115332788</v>
+      </c>
+      <c r="K101">
+        <v>0.1298628904779338</v>
+      </c>
+      <c r="L101">
         <v>4.792670193364176</v>
       </c>
-      <c r="I101">
+      <c r="M101">
         <v>0.224659947022198</v>
       </c>
-      <c r="J101">
+      <c r="N101">
         <v>3.610192852791397E-32</v>
       </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="O101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B102">
         <v>2014</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D102">
-        <v>0.0009397686923818712</v>
+        <v>0.0009397687076807415</v>
       </c>
       <c r="E102">
         <v>0.000877360238277476</v>
       </c>
       <c r="F102">
-        <v>0.2435862311184492</v>
+        <v>0.2435862123515089</v>
       </c>
       <c r="G102">
         <v>0.0915512212905578</v>
       </c>
       <c r="H102">
-        <v>0.9749549988451922</v>
+        <v>0.04955259462319107</v>
       </c>
       <c r="I102">
-        <v>0.01264133984204529</v>
+        <v>0.04667740923923337</v>
       </c>
       <c r="J102">
-        <v>0.005228817264681821</v>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>0.001003944845593184</v>
+      </c>
+      <c r="K102">
+        <v>0.05945330729430861</v>
+      </c>
+      <c r="L102">
+        <v>0.9749548993466488</v>
+      </c>
+      <c r="M102">
+        <v>0.01264133981458172</v>
+      </c>
+      <c r="N102">
+        <v>0.005228817264572611</v>
+      </c>
+      <c r="O102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B103">
         <v>2014</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D103">
-        <v>0.008413589324698949</v>
+        <v>0.008413591327346858</v>
       </c>
       <c r="E103">
         <v>0.008363051014124896</v>
       </c>
       <c r="F103">
-        <v>0.2906375819301771</v>
+        <v>0.2906375596369813</v>
       </c>
       <c r="G103">
         <v>0.2487771904241099</v>
       </c>
       <c r="H103">
-        <v>3.768714207211307</v>
+        <v>0.4436360531711272</v>
       </c>
       <c r="I103">
-        <v>0.01264133984204529</v>
+        <v>0.4449318964366328</v>
       </c>
       <c r="J103">
-        <v>0.005228817264681821</v>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>0.02687966302955334</v>
+      </c>
+      <c r="K103">
+        <v>0.5871366795170945</v>
+      </c>
+      <c r="L103">
+        <v>3.768715103456864</v>
+      </c>
+      <c r="M103">
+        <v>0.01264133981458172</v>
+      </c>
+      <c r="N103">
+        <v>0.005228817264572611</v>
+      </c>
+      <c r="O103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B104">
         <v>2014</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D104">
-        <v>0.004701936963550937</v>
+        <v>0.004701936683112572</v>
       </c>
       <c r="E104">
         <v>0.004701936570308383</v>
       </c>
       <c r="F104">
-        <v>0.125512675481036</v>
+        <v>0.1255126723339977</v>
       </c>
       <c r="G104">
         <v>0.1910469072791348</v>
       </c>
       <c r="H104">
-        <v>6.338375423332</v>
+        <v>0.2479260699977908</v>
       </c>
       <c r="I104">
-        <v>0.01264133984204529</v>
+        <v>0.2501529108956387</v>
       </c>
       <c r="J104">
-        <v>0.005228817264681821</v>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>0.01653059879681886</v>
+      </c>
+      <c r="K104">
+        <v>0.1988085878056203</v>
+      </c>
+      <c r="L104">
+        <v>6.338375648818205</v>
+      </c>
+      <c r="M104">
+        <v>0.01264133981458172</v>
+      </c>
+      <c r="N104">
+        <v>0.005228817264572611</v>
+      </c>
+      <c r="O104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B105">
         <v>2014</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D105">
-        <v>0.004909780105357654</v>
+        <v>0.004909778972183441</v>
       </c>
       <c r="E105">
         <v>0.004853901853032512</v>
       </c>
       <c r="F105">
-        <v>0.3402635114703377</v>
+        <v>0.340263555677512</v>
       </c>
       <c r="G105">
         <v>0.4686246810061976</v>
       </c>
       <c r="H105">
-        <v>5.280711510287849</v>
+        <v>0.258885282207891</v>
       </c>
       <c r="I105">
-        <v>0.01264133984204529</v>
+        <v>0.2582377834284952</v>
       </c>
       <c r="J105">
-        <v>0.005228817264681821</v>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>0.01066130993250532</v>
+      </c>
+      <c r="K105">
+        <v>0.1546014253829766</v>
+      </c>
+      <c r="L105">
+        <v>5.280709711659185</v>
+      </c>
+      <c r="M105">
+        <v>0.01264133981458172</v>
+      </c>
+      <c r="N105">
+        <v>0.005228817264572611</v>
+      </c>
+      <c r="O105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B106">
         <v>2014</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D106">
-        <v>0.001189250022462478</v>
+        <v>0.00118925017079627</v>
       </c>
       <c r="E106">
         <v>0.0006119969682619789</v>
       </c>
       <c r="F106">
-        <v>0.179646797278361</v>
+        <v>0.179646674752634</v>
       </c>
       <c r="G106">
         <v>0.07255882320189748</v>
       </c>
       <c r="H106">
-        <v>1.906375561285508</v>
+        <v>0.07891776851650821</v>
       </c>
       <c r="I106">
-        <v>0.00744060023882906</v>
+        <v>0.04839176455375596</v>
       </c>
       <c r="J106">
-        <v>1.015788718316466</v>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>0.001881046825468447</v>
+      </c>
+      <c r="K106">
+        <v>0.06020078907086546</v>
+      </c>
+      <c r="L106">
+        <v>1.906376829122184</v>
+      </c>
+      <c r="M106">
+        <v>0.007440600007281531</v>
+      </c>
+      <c r="N106">
+        <v>1.015788718315852</v>
+      </c>
+      <c r="O106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B107">
         <v>2014</v>
       </c>
       <c r="C107" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D107">
-        <v>0.005463650477176933</v>
+        <v>0.005463649618323367</v>
       </c>
       <c r="E107">
         <v>0.004526758081568607</v>
       </c>
       <c r="F107">
-        <v>0.3374615500037417</v>
+        <v>0.3374614888235011</v>
       </c>
       <c r="G107">
         <v>0.2355377882698796</v>
       </c>
       <c r="H107">
-        <v>3.424225423154274</v>
+        <v>0.3625637787762126</v>
       </c>
       <c r="I107">
-        <v>0.00744060023882906</v>
+        <v>0.357939373290012</v>
       </c>
       <c r="J107">
-        <v>1.015788718316466</v>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>0.01650855296313946</v>
+      </c>
+      <c r="K107">
+        <v>0.4493392070484581</v>
+      </c>
+      <c r="L107">
+        <v>3.424226542457712</v>
+      </c>
+      <c r="M107">
+        <v>0.007440600007281531</v>
+      </c>
+      <c r="N107">
+        <v>1.015788718315852</v>
+      </c>
+      <c r="O107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B108">
         <v>2014</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D108">
-        <v>0.004359261133145796</v>
+        <v>0.004359256892217958</v>
       </c>
       <c r="E108">
         <v>0.004359255157693876</v>
       </c>
       <c r="F108">
-        <v>0.1345177041237308</v>
+        <v>0.1345177143538474</v>
       </c>
       <c r="G108">
         <v>0.2320969232653698</v>
       </c>
       <c r="H108">
-        <v>7.306875945840978</v>
+        <v>0.2892770880105968</v>
       </c>
       <c r="I108">
-        <v>0.00744060023882906</v>
+        <v>0.3446945984388694</v>
       </c>
       <c r="J108">
-        <v>1.015788718316466</v>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>0.01532583945597067</v>
+      </c>
+      <c r="K108">
+        <v>0.3114027207853339</v>
+      </c>
+      <c r="L108">
+        <v>7.306872841063212</v>
+      </c>
+      <c r="M108">
+        <v>0.007440600007281531</v>
+      </c>
+      <c r="N108">
+        <v>1.015788718315852</v>
+      </c>
+      <c r="O108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B109">
         <v>2014</v>
       </c>
       <c r="C109" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D109">
-        <v>0.004057330915695961</v>
+        <v>0.004057328849636328</v>
       </c>
       <c r="E109">
         <v>0.003148707140055259</v>
       </c>
       <c r="F109">
-        <v>0.3483739485941664</v>
+        <v>0.3483741220700174</v>
       </c>
       <c r="G109">
         <v>0.4598064652628532</v>
       </c>
       <c r="H109">
-        <v>6.184682099803309</v>
+        <v>0.2692413646966824</v>
       </c>
       <c r="I109">
-        <v>0.00744060023882906</v>
+        <v>0.2489742637173627</v>
       </c>
       <c r="J109">
-        <v>1.015788718316466</v>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>0.007664351036666435</v>
+      </c>
+      <c r="K109">
+        <v>0.1790572830953425</v>
+      </c>
+      <c r="L109">
+        <v>6.184678128652429</v>
+      </c>
+      <c r="M109">
+        <v>0.007440600007281531</v>
+      </c>
+      <c r="N109">
+        <v>1.015788718315852</v>
+      </c>
+      <c r="O109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B110">
         <v>2014</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D110">
         <v>0.01385053773514534</v>
@@ -4377,27 +5697,39 @@
         <v>0.1824221923240142</v>
       </c>
       <c r="H110">
+        <v>0.03049110386576986</v>
+      </c>
+      <c r="I110">
+        <v>0.03049110386576985</v>
+      </c>
+      <c r="J110">
+        <v>0.03834254015928429</v>
+      </c>
+      <c r="K110">
+        <v>0.02708727676816449</v>
+      </c>
+      <c r="L110">
         <v>4.15417344913413</v>
       </c>
-      <c r="I110">
+      <c r="M110">
         <v>0.2537346303598635</v>
       </c>
-      <c r="J110">
+      <c r="N110">
         <v>1.111342702672225E-31</v>
       </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="O110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B111">
         <v>2014</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D111">
         <v>0.2243838383019159</v>
@@ -4412,27 +5744,39 @@
         <v>0.2859392714210664</v>
       </c>
       <c r="H111">
+        <v>0.4939671693831196</v>
+      </c>
+      <c r="I111">
+        <v>0.4939671693831196</v>
+      </c>
+      <c r="J111">
+        <v>0.6820515438011963</v>
+      </c>
+      <c r="K111">
+        <v>0.6948015802793865</v>
+      </c>
+      <c r="L111">
         <v>4.142264412202492</v>
       </c>
-      <c r="I111">
+      <c r="M111">
         <v>0.2537346303598635</v>
       </c>
-      <c r="J111">
+      <c r="N111">
         <v>1.111342702672225E-31</v>
       </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="O111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B112">
         <v>2014</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D112">
         <v>0.1051786243018368</v>
@@ -4447,27 +5791,39 @@
         <v>0.09537899337952742</v>
       </c>
       <c r="H112">
+        <v>0.2315442489939139</v>
+      </c>
+      <c r="I112">
+        <v>0.2315442489939139</v>
+      </c>
+      <c r="J112">
+        <v>0.1916116120807046</v>
+      </c>
+      <c r="K112">
+        <v>0.138647551274949</v>
+      </c>
+      <c r="L112">
         <v>5.252323298751389</v>
       </c>
-      <c r="I112">
+      <c r="M112">
         <v>0.2537346303598635</v>
       </c>
-      <c r="J112">
+      <c r="N112">
         <v>1.111342702672225E-31</v>
       </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="O112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B113">
         <v>2014</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D113">
         <v>0.1108354846001575</v>
@@ -4482,27 +5838,39 @@
         <v>0.436259542875392</v>
       </c>
       <c r="H113">
+        <v>0.2439974777571966</v>
+      </c>
+      <c r="I113">
+        <v>0.2439974777571966</v>
+      </c>
+      <c r="J113">
+        <v>0.2244019484845517</v>
+      </c>
+      <c r="K113">
+        <v>0.1394635916775001</v>
+      </c>
+      <c r="L113">
         <v>5.810876595654378</v>
       </c>
-      <c r="I113">
+      <c r="M113">
         <v>0.2537346303598635</v>
       </c>
-      <c r="J113">
+      <c r="N113">
         <v>1.111342702672225E-31</v>
       </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="O113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B114">
         <v>2014</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D114">
         <v>0.004729553045885695</v>
@@ -4517,27 +5885,39 @@
         <v>0.02222986134983385</v>
       </c>
       <c r="H114">
+        <v>0.02354478700545256</v>
+      </c>
+      <c r="I114">
+        <v>0.02354478700545255</v>
+      </c>
+      <c r="J114">
+        <v>0.0123130196618179</v>
+      </c>
+      <c r="K114">
+        <v>0.02824034308803426</v>
+      </c>
+      <c r="L114">
         <v>2.695568903324258</v>
       </c>
-      <c r="I114">
-        <v>0.08548051122279422</v>
-      </c>
-      <c r="J114">
+      <c r="M114">
+        <v>0.08548051122279424</v>
+      </c>
+      <c r="N114">
         <v>0</v>
       </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="O114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B115">
         <v>2014</v>
       </c>
       <c r="C115" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D115">
         <v>0.0683548003518749</v>
@@ -4552,27 +5932,39 @@
         <v>0.1518276612810817</v>
       </c>
       <c r="H115">
-        <v>5.386771243894927</v>
+        <v>0.3402856886202316</v>
       </c>
       <c r="I115">
-        <v>0.08548051122279422</v>
+        <v>0.3402856886202316</v>
       </c>
       <c r="J115">
+        <v>0.2168160809712198</v>
+      </c>
+      <c r="K115">
+        <v>0.4519165628289036</v>
+      </c>
+      <c r="L115">
+        <v>5.386771243894928</v>
+      </c>
+      <c r="M115">
+        <v>0.08548051122279424</v>
+      </c>
+      <c r="N115">
         <v>0</v>
       </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="O115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B116">
         <v>2014</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D116">
         <v>0.06642708192490709</v>
@@ -4587,27 +5979,39 @@
         <v>0.304113670218861</v>
       </c>
       <c r="H116">
-        <v>4.847595114892753</v>
+        <v>0.3306890693775473</v>
       </c>
       <c r="I116">
-        <v>0.08548051122279422</v>
+        <v>0.3306890693775473</v>
       </c>
       <c r="J116">
+        <v>0.1523269213966967</v>
+      </c>
+      <c r="K116">
+        <v>0.3006813975151523</v>
+      </c>
+      <c r="L116">
+        <v>4.847595114892752</v>
+      </c>
+      <c r="M116">
+        <v>0.08548051122279424</v>
+      </c>
+      <c r="N116">
         <v>0</v>
       </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="O116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B117">
         <v>2014</v>
       </c>
       <c r="C117" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D117">
         <v>0.0613633079820993</v>
@@ -4622,27 +6026,39 @@
         <v>0.5218288071502234</v>
       </c>
       <c r="H117">
+        <v>0.3054804549967685</v>
+      </c>
+      <c r="I117">
+        <v>0.3054804549967685</v>
+      </c>
+      <c r="J117">
+        <v>0.115456491694589</v>
+      </c>
+      <c r="K117">
+        <v>0.2191616965679099</v>
+      </c>
+      <c r="L117">
         <v>5.248745694984619</v>
       </c>
-      <c r="I117">
-        <v>0.08548051122279422</v>
-      </c>
-      <c r="J117">
+      <c r="M117">
+        <v>0.08548051122279424</v>
+      </c>
+      <c r="N117">
         <v>0</v>
       </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="O117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B118">
         <v>2014</v>
       </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D118">
         <v>0.00151354033516912</v>
@@ -4657,27 +6073,39 @@
         <v>0.02366217692027666</v>
       </c>
       <c r="H118">
+        <v>0.02073251953290721</v>
+      </c>
+      <c r="I118">
+        <v>0.02073251953290721</v>
+      </c>
+      <c r="J118">
+        <v>0.00247639288338598</v>
+      </c>
+      <c r="K118">
+        <v>0.02535838009351073</v>
+      </c>
+      <c r="L118">
         <v>1.959873441109433</v>
       </c>
-      <c r="I118">
+      <c r="M118">
         <v>0.02753125316164821</v>
       </c>
-      <c r="J118">
+      <c r="N118">
         <v>7.681962191674054E-32</v>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="O118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B119">
         <v>2014</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D119">
         <v>0.03148305599292885</v>
@@ -4692,27 +6120,39 @@
         <v>0.2151437932289771</v>
       </c>
       <c r="H119">
+        <v>0.4312558166849744</v>
+      </c>
+      <c r="I119">
+        <v>0.4312558166849743</v>
+      </c>
+      <c r="J119">
+        <v>0.09448257812736727</v>
+      </c>
+      <c r="K119">
+        <v>0.4765878691839945</v>
+      </c>
+      <c r="L119">
         <v>4.822269164450355</v>
       </c>
-      <c r="I119">
+      <c r="M119">
         <v>0.02753125316164821</v>
       </c>
-      <c r="J119">
+      <c r="N119">
         <v>7.681962191674054E-32</v>
       </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="O119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B120">
         <v>2014</v>
       </c>
       <c r="C120" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D120">
         <v>0.02064449863718207</v>
@@ -4727,27 +6167,39 @@
         <v>0.2104113578449217</v>
       </c>
       <c r="H120">
+        <v>0.2827889427833638</v>
+      </c>
+      <c r="I120">
+        <v>0.2827889427833637</v>
+      </c>
+      <c r="J120">
+        <v>0.04760544595915091</v>
+      </c>
+      <c r="K120">
+        <v>0.289971545773679</v>
+      </c>
+      <c r="L120">
         <v>5.247364189193072</v>
       </c>
-      <c r="I120">
+      <c r="M120">
         <v>0.02753125316164821</v>
       </c>
-      <c r="J120">
+      <c r="N120">
         <v>7.681962191674054E-32</v>
       </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="O120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B121">
         <v>2014</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D121">
         <v>0.01936210817974961</v>
@@ -4762,27 +6214,39 @@
         <v>0.5507826720058245</v>
       </c>
       <c r="H121">
+        <v>0.2652227209987547</v>
+      </c>
+      <c r="I121">
+        <v>0.2652227209987547</v>
+      </c>
+      <c r="J121">
+        <v>0.0397793610141977</v>
+      </c>
+      <c r="K121">
+        <v>0.2080822049488158</v>
+      </c>
+      <c r="L121">
         <v>6.028679347886172</v>
       </c>
-      <c r="I121">
+      <c r="M121">
         <v>0.02753125316164821</v>
       </c>
-      <c r="J121">
+      <c r="N121">
         <v>7.681962191674054E-32</v>
       </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="O121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B122">
         <v>2014</v>
       </c>
       <c r="C122" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D122">
         <v>0.008482849286590642</v>
@@ -4797,27 +6261,39 @@
         <v>0.1098631526897464</v>
       </c>
       <c r="H122">
+        <v>0.03334863803480738</v>
+      </c>
+      <c r="I122">
+        <v>0.03334863803480737</v>
+      </c>
+      <c r="J122">
+        <v>0.02045646422739767</v>
+      </c>
+      <c r="K122">
+        <v>0.03591047557738668</v>
+      </c>
+      <c r="L122">
         <v>2.386861593470829</v>
       </c>
-      <c r="I122">
+      <c r="M122">
         <v>0.1204685377513813</v>
       </c>
-      <c r="J122">
+      <c r="N122">
         <v>7.289890332509909E-32</v>
       </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="O122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B123">
         <v>2014</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D123">
         <v>0.1229587421783793</v>
@@ -4832,27 +6308,39 @@
         <v>0.3102022206381927</v>
       </c>
       <c r="H123">
+        <v>0.4833878862617416</v>
+      </c>
+      <c r="I123">
+        <v>0.4833878862617415</v>
+      </c>
+      <c r="J123">
+        <v>0.3531794281102971</v>
+      </c>
+      <c r="K123">
+        <v>0.5972214617491722</v>
+      </c>
+      <c r="L123">
         <v>4.367476465813784</v>
       </c>
-      <c r="I123">
+      <c r="M123">
         <v>0.1204685377513813</v>
       </c>
-      <c r="J123">
+      <c r="N123">
         <v>7.289890332509909E-32</v>
       </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="O123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B124">
         <v>2014</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D124">
         <v>0.0581746140297635</v>
@@ -4867,27 +6355,39 @@
         <v>0.1768162290249869</v>
       </c>
       <c r="H124">
+        <v>0.2287019467810133</v>
+      </c>
+      <c r="I124">
+        <v>0.2287019467810133</v>
+      </c>
+      <c r="J124">
+        <v>0.134456559490373</v>
+      </c>
+      <c r="K124">
+        <v>0.2040806614290401</v>
+      </c>
+      <c r="L124">
         <v>4.762203877918625</v>
       </c>
-      <c r="I124">
+      <c r="M124">
         <v>0.1204685377513813</v>
       </c>
-      <c r="J124">
+      <c r="N124">
         <v>7.289890332509909E-32</v>
       </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="O124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B125">
         <v>2014</v>
       </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D125">
         <v>0.0647524819981932</v>
@@ -4902,27 +6402,39 @@
         <v>0.4031183976470739</v>
       </c>
       <c r="H125">
+        <v>0.2545615289224379</v>
+      </c>
+      <c r="I125">
+        <v>0.2545615289224379</v>
+      </c>
+      <c r="J125">
+        <v>0.1350614008747169</v>
+      </c>
+      <c r="K125">
+        <v>0.1627874012444012</v>
+      </c>
+      <c r="L125">
         <v>6.324891558621019</v>
       </c>
-      <c r="I125">
+      <c r="M125">
         <v>0.1204685377513813</v>
       </c>
-      <c r="J125">
+      <c r="N125">
         <v>7.289890332509909E-32</v>
       </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="O125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B126">
         <v>2014</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D126">
         <v>0.00178907630605582</v>
@@ -4937,27 +6449,39 @@
         <v>0.1125983125983126</v>
       </c>
       <c r="H126">
+        <v>0.02571406582200544</v>
+      </c>
+      <c r="I126">
+        <v>0.02571406582200545</v>
+      </c>
+      <c r="J126">
+        <v>0.003248128624449623</v>
+      </c>
+      <c r="K126">
+        <v>0.02804014315076533</v>
+      </c>
+      <c r="L126">
         <v>1.905326593620954</v>
       </c>
-      <c r="I126">
+      <c r="M126">
         <v>0.04225351214889108</v>
       </c>
-      <c r="J126">
+      <c r="N126">
         <v>3.137738073612353E-32</v>
       </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="O126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B127">
         <v>2014</v>
       </c>
       <c r="C127" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D127">
         <v>0.02685756343995018</v>
@@ -4972,27 +6496,39 @@
         <v>0.2319132319132319</v>
       </c>
       <c r="H127">
+        <v>0.3860188365224586</v>
+      </c>
+      <c r="I127">
+        <v>0.3860188365224586</v>
+      </c>
+      <c r="J127">
+        <v>0.07887164184755167</v>
+      </c>
+      <c r="K127">
+        <v>0.5453171318900045</v>
+      </c>
+      <c r="L127">
         <v>4.071644697546859</v>
       </c>
-      <c r="I127">
+      <c r="M127">
         <v>0.04225351214889108</v>
       </c>
-      <c r="J127">
+      <c r="N127">
         <v>3.137738073612353E-32</v>
       </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="O127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B128">
         <v>2014</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D128">
         <v>0.01862136892831861</v>
@@ -5007,27 +6543,39 @@
         <v>0.1772079772079772</v>
       </c>
       <c r="H128">
+        <v>0.2676415224425268</v>
+      </c>
+      <c r="I128">
+        <v>0.2676415224425268</v>
+      </c>
+      <c r="J128">
+        <v>0.0425711438959904</v>
+      </c>
+      <c r="K128">
+        <v>0.2094379109778057</v>
+      </c>
+      <c r="L128">
         <v>5.50128223222671</v>
       </c>
-      <c r="I128">
+      <c r="M128">
         <v>0.04225351214889108</v>
       </c>
-      <c r="J128">
+      <c r="N128">
         <v>3.137738073612353E-32</v>
       </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="O128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B129">
         <v>2014</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D129">
         <v>0.02230777597365487</v>
@@ -5042,27 +6590,39 @@
         <v>0.4782804782804783</v>
       </c>
       <c r="H129">
+        <v>0.3206255752130091</v>
+      </c>
+      <c r="I129">
+        <v>0.3206255752130092</v>
+      </c>
+      <c r="J129">
+        <v>0.04561132683573837</v>
+      </c>
+      <c r="K129">
+        <v>0.2172048139814244</v>
+      </c>
+      <c r="L129">
         <v>4.97193086706215</v>
       </c>
-      <c r="I129">
+      <c r="M129">
         <v>0.04225351214889108</v>
       </c>
-      <c r="J129">
+      <c r="N129">
         <v>3.137738073612353E-32</v>
       </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="O129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B130">
         <v>2014</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D130">
         <v>0.005471957569927089</v>
@@ -5077,27 +6637,39 @@
         <v>0.2875316621042946</v>
       </c>
       <c r="H130">
+        <v>0.0517967638265474</v>
+      </c>
+      <c r="I130">
+        <v>0.0517967638265474</v>
+      </c>
+      <c r="J130">
+        <v>0.01218786644082467</v>
+      </c>
+      <c r="K130">
+        <v>0.05058801210893731</v>
+      </c>
+      <c r="L130">
         <v>2.296965069728575</v>
       </c>
-      <c r="I130">
+      <c r="M130">
         <v>0.06255100690707327</v>
       </c>
-      <c r="J130">
+      <c r="N130">
         <v>4.859233292790096E-32</v>
       </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="O130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B131">
         <v>2014</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D131">
         <v>0.04860011385763633</v>
@@ -5112,27 +6684,39 @@
         <v>0.2846352184827179</v>
       </c>
       <c r="H131">
+        <v>0.4600416920741665</v>
+      </c>
+      <c r="I131">
+        <v>0.4600416920741665</v>
+      </c>
+      <c r="J131">
+        <v>0.1308612069636565</v>
+      </c>
+      <c r="K131">
+        <v>0.5348064580280455</v>
+      </c>
+      <c r="L131">
         <v>4.096109608464783</v>
       </c>
-      <c r="I131">
+      <c r="M131">
         <v>0.06255100690707327</v>
       </c>
-      <c r="J131">
+      <c r="N131">
         <v>4.859233292790096E-32</v>
       </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="O131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B132">
         <v>2014</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D132">
         <v>0.02892260037813337</v>
@@ -5147,27 +6731,39 @@
         <v>0.1204806960551574</v>
       </c>
       <c r="H132">
+        <v>0.2737771778913384</v>
+      </c>
+      <c r="I132">
+        <v>0.2737771778913384</v>
+      </c>
+      <c r="J132">
+        <v>0.0691265008681327</v>
+      </c>
+      <c r="K132">
+        <v>0.2236799840904473</v>
+      </c>
+      <c r="L132">
         <v>5.277097383660477</v>
       </c>
-      <c r="I132">
+      <c r="M132">
         <v>0.06255100690707327</v>
       </c>
-      <c r="J132">
+      <c r="N132">
         <v>4.859233292790096E-32</v>
       </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="O132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B133">
         <v>2014</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D133">
         <v>0.02264817469048811</v>
@@ -5182,27 +6778,39 @@
         <v>0.3073524233578301</v>
       </c>
       <c r="H133">
+        <v>0.2143843662079477</v>
+      </c>
+      <c r="I133">
+        <v>0.2143843662079477</v>
+      </c>
+      <c r="J133">
+        <v>0.05882844182031755</v>
+      </c>
+      <c r="K133">
+        <v>0.1909255457725699</v>
+      </c>
+      <c r="L133">
         <v>4.979021945689335</v>
       </c>
-      <c r="I133">
+      <c r="M133">
         <v>0.06255100690707327</v>
       </c>
-      <c r="J133">
+      <c r="N133">
         <v>4.859233292790096E-32</v>
       </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="O133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B134">
         <v>2014</v>
       </c>
       <c r="C134" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D134">
         <v>0.02588191916855181</v>
@@ -5217,27 +6825,39 @@
         <v>0.1592199357237805</v>
       </c>
       <c r="H134">
+        <v>0.0330845517968639</v>
+      </c>
+      <c r="I134">
+        <v>0.0330845517968639</v>
+      </c>
+      <c r="J134">
+        <v>0.05144613334705048</v>
+      </c>
+      <c r="K134">
+        <v>0.03488279919868723</v>
+      </c>
+      <c r="L134">
         <v>1.838862769825426</v>
       </c>
-      <c r="I134">
+      <c r="M134">
         <v>0.7654743226651318</v>
       </c>
-      <c r="J134">
+      <c r="N134">
         <v>3.91626666649665E-32</v>
       </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="O134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B135">
         <v>2014</v>
       </c>
       <c r="C135" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D135">
         <v>0.3486780863307667</v>
@@ -5252,27 +6872,39 @@
         <v>0.2365991755144621</v>
       </c>
       <c r="H135">
+        <v>0.4457110824168884</v>
+      </c>
+      <c r="I135">
+        <v>0.4457110824168884</v>
+      </c>
+      <c r="J135">
+        <v>1.01575296977369</v>
+      </c>
+      <c r="K135">
+        <v>0.5432613510227847</v>
+      </c>
+      <c r="L135">
         <v>3.774842376084095</v>
       </c>
-      <c r="I135">
+      <c r="M135">
         <v>0.7654743226651318</v>
       </c>
-      <c r="J135">
+      <c r="N135">
         <v>3.91626666649665E-32</v>
       </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="O135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B136">
         <v>2014</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D136">
         <v>0.1716067288175974</v>
@@ -5287,27 +6919,39 @@
         <v>0.1576037017718026</v>
       </c>
       <c r="H136">
+        <v>0.2193628560263315</v>
+      </c>
+      <c r="I136">
+        <v>0.2193628560263315</v>
+      </c>
+      <c r="J136">
+        <v>0.4031331918443878</v>
+      </c>
+      <c r="K136">
+        <v>0.1764716463477333</v>
+      </c>
+      <c r="L136">
         <v>4.242540070768285</v>
       </c>
-      <c r="I136">
+      <c r="M136">
         <v>0.7654743226651318</v>
       </c>
-      <c r="J136">
+      <c r="N136">
         <v>3.91626666649665E-32</v>
       </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="O136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B137">
         <v>2014</v>
       </c>
       <c r="C137" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D137">
         <v>0.2361294662622668</v>
@@ -5322,27 +6966,39 @@
         <v>0.4465771869899546</v>
       </c>
       <c r="H137">
+        <v>0.3018415097599162</v>
+      </c>
+      <c r="I137">
+        <v>0.3018415097599162</v>
+      </c>
+      <c r="J137">
+        <v>0.4762284515472464</v>
+      </c>
+      <c r="K137">
+        <v>0.2453842034307949</v>
+      </c>
+      <c r="L137">
         <v>4.381097085830149</v>
       </c>
-      <c r="I137">
+      <c r="M137">
         <v>0.7654743226651318</v>
       </c>
-      <c r="J137">
+      <c r="N137">
         <v>3.91626666649665E-32</v>
       </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="O137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B138">
         <v>2014</v>
       </c>
       <c r="C138" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D138">
         <v>0.001465267425501141</v>
@@ -5357,30 +7013,42 @@
         <v>0.03257554629937836</v>
       </c>
       <c r="H138">
+        <v>0.03190810724683865</v>
+      </c>
+      <c r="I138">
+        <v>0.03190810724683866</v>
+      </c>
+      <c r="J138">
+        <v>0.002028163195849062</v>
+      </c>
+      <c r="K138">
+        <v>0.02394849199489689</v>
+      </c>
+      <c r="L138">
         <v>1.925599422268593</v>
       </c>
-      <c r="I138">
+      <c r="M138">
         <v>0.01576266122301373</v>
       </c>
-      <c r="J138">
-        <v>7.302194819987462E-32</v>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="N138">
+        <v>2.031321838859206E-32</v>
+      </c>
+      <c r="O138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B139">
         <v>2014</v>
       </c>
       <c r="C139" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D139">
-        <v>0.02434281971387794</v>
+        <v>0.02434281971387795</v>
       </c>
       <c r="E139">
         <v>0.02434281971387794</v>
@@ -5392,27 +7060,39 @@
         <v>0.314833973568916</v>
       </c>
       <c r="H139">
+        <v>0.530096614858699</v>
+      </c>
+      <c r="I139">
+        <v>0.530096614858699</v>
+      </c>
+      <c r="J139">
+        <v>0.06945986221974358</v>
+      </c>
+      <c r="K139">
+        <v>0.6553561076345793</v>
+      </c>
+      <c r="L139">
         <v>5.317115867006679</v>
       </c>
-      <c r="I139">
+      <c r="M139">
         <v>0.01576266122301373</v>
       </c>
-      <c r="J139">
-        <v>7.302194819987462E-32</v>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="N139">
+        <v>2.031321838859206E-32</v>
+      </c>
+      <c r="O139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B140">
         <v>2014</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D140">
         <v>0.01023026509965158</v>
@@ -5421,36 +7101,48 @@
         <v>0.01023026509965158</v>
       </c>
       <c r="F140">
-        <v>0.2293009061850487</v>
+        <v>0.2293009061850486</v>
       </c>
       <c r="G140">
         <v>0.2076342470559659</v>
       </c>
       <c r="H140">
-        <v>5.22242909527207</v>
+        <v>0.222777351275403</v>
       </c>
       <c r="I140">
+        <v>0.222777351275403</v>
+      </c>
+      <c r="J140">
+        <v>0.02640324693710664</v>
+      </c>
+      <c r="K140">
+        <v>0.1779072036794729</v>
+      </c>
+      <c r="L140">
+        <v>5.222429095272073</v>
+      </c>
+      <c r="M140">
         <v>0.01576266122301373</v>
       </c>
-      <c r="J140">
-        <v>7.302194819987462E-32</v>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="N140">
+        <v>2.031321838859206E-32</v>
+      </c>
+      <c r="O140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B141">
         <v>2014</v>
       </c>
       <c r="C141" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D141">
-        <v>0.009883125151212053</v>
+        <v>0.009883125151212051</v>
       </c>
       <c r="E141">
         <v>0.009883125151212051</v>
@@ -5462,167 +7154,227 @@
         <v>0.4449562330757397</v>
       </c>
       <c r="H141">
-        <v>5.750416448740722</v>
+        <v>0.2152179266190593</v>
       </c>
       <c r="I141">
+        <v>0.2152179266190594</v>
+      </c>
+      <c r="J141">
+        <v>0.0220005835761247</v>
+      </c>
+      <c r="K141">
+        <v>0.142788196691051</v>
+      </c>
+      <c r="L141">
+        <v>5.750416448740721</v>
+      </c>
+      <c r="M141">
         <v>0.01576266122301373</v>
       </c>
-      <c r="J141">
-        <v>7.302194819987462E-32</v>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="N141">
+        <v>2.031321838859206E-32</v>
+      </c>
+      <c r="O141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B142">
         <v>2014</v>
       </c>
       <c r="C142" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D142">
-        <v>0.000964741259778251</v>
+        <v>0.0009647413040153981</v>
       </c>
       <c r="E142">
         <v>0.0003723176519013904</v>
       </c>
       <c r="F142">
-        <v>0.2979837328583163</v>
+        <v>0.2979835664260648</v>
       </c>
       <c r="G142">
         <v>0.09328298675743231</v>
       </c>
       <c r="H142">
-        <v>1.070367791718565</v>
+        <v>0.05465561298394538</v>
       </c>
       <c r="I142">
-        <v>0.01185337686716738</v>
+        <v>0.02402752931192227</v>
       </c>
       <c r="J142">
-        <v>2.586074167879126</v>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>0.001091741002526935</v>
+      </c>
+      <c r="K142">
+        <v>0.02391976106075795</v>
+      </c>
+      <c r="L142">
+        <v>1.070368548310832</v>
+      </c>
+      <c r="M142">
+        <v>0.01185337516627222</v>
+      </c>
+      <c r="N142">
+        <v>2.586074167880628</v>
+      </c>
+      <c r="O142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B143">
         <v>2014</v>
       </c>
       <c r="C143" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D143">
-        <v>0.007742026686131932</v>
+        <v>0.007742024312314276</v>
       </c>
       <c r="E143">
         <v>0.007018637735033839</v>
       </c>
       <c r="F143">
-        <v>0.2673424513263093</v>
+        <v>0.2673424461260293</v>
       </c>
       <c r="G143">
         <v>0.2928681593362761</v>
       </c>
       <c r="H143">
-        <v>3.940552429434531</v>
+        <v>0.4386098975600522</v>
       </c>
       <c r="I143">
-        <v>0.01185337686716738</v>
+        <v>0.4529479680779527</v>
       </c>
       <c r="J143">
-        <v>2.586074167879126</v>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>0.0245186348748033</v>
+      </c>
+      <c r="K143">
+        <v>0.552234371285952</v>
+      </c>
+      <c r="L143">
+        <v>3.940552885611839</v>
+      </c>
+      <c r="M143">
+        <v>0.01185337516627222</v>
+      </c>
+      <c r="N143">
+        <v>2.586074167880628</v>
+      </c>
+      <c r="O143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B144">
         <v>2014</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D144">
-        <v>0.004081771171949593</v>
+        <v>0.004081770202396974</v>
       </c>
       <c r="E144">
         <v>0.004081775825140003</v>
       </c>
       <c r="F144">
-        <v>0.1011963243639547</v>
+        <v>0.1011963409540497</v>
       </c>
       <c r="G144">
         <v>0.2319948944317396</v>
       </c>
       <c r="H144">
-        <v>7.011431401252048</v>
+        <v>0.231245051438213</v>
       </c>
       <c r="I144">
-        <v>0.01185337686716738</v>
+        <v>0.2634175086311047</v>
       </c>
       <c r="J144">
-        <v>2.586074167879126</v>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>0.01435027950056704</v>
+      </c>
+      <c r="K144">
+        <v>0.2269690267773173</v>
+      </c>
+      <c r="L144">
+        <v>7.011432011721411</v>
+      </c>
+      <c r="M144">
+        <v>0.01185337516627222</v>
+      </c>
+      <c r="N144">
+        <v>2.586074167880628</v>
+      </c>
+      <c r="O144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B145">
         <v>2014</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D145">
-        <v>0.004862743047268359</v>
+        <v>0.004862740076738702</v>
       </c>
       <c r="E145">
         <v>0.004022730142607178</v>
       </c>
       <c r="F145">
-        <v>0.3334774914514195</v>
+        <v>0.3334776464938563</v>
       </c>
       <c r="G145">
         <v>0.3818539594745519</v>
       </c>
       <c r="H145">
-        <v>4.857228448093913</v>
+        <v>0.2754894380177894</v>
       </c>
       <c r="I145">
-        <v>0.01185337686716738</v>
+        <v>0.2596069939790203</v>
       </c>
       <c r="J145">
-        <v>2.586074167879126</v>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>0.01049593528779025</v>
+      </c>
+      <c r="K145">
+        <v>0.1968768408759728</v>
+      </c>
+      <c r="L145">
+        <v>4.857225112985817</v>
+      </c>
+      <c r="M145">
+        <v>0.01185337516627222</v>
+      </c>
+      <c r="N145">
+        <v>2.586074167880628</v>
+      </c>
+      <c r="O145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B146">
         <v>2014</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D146">
         <v>0.001442031269666376</v>
@@ -5637,27 +7389,39 @@
         <v>0.02273684210526316</v>
       </c>
       <c r="H146">
+        <v>0.01399176068361341</v>
+      </c>
+      <c r="I146">
+        <v>0.01399176068361341</v>
+      </c>
+      <c r="J146">
+        <v>0.002426359903566653</v>
+      </c>
+      <c r="K146">
+        <v>0.01419777831379494</v>
+      </c>
+      <c r="L146">
         <v>2.010539768494517</v>
       </c>
-      <c r="I146">
+      <c r="M146">
         <v>0.04479508011823504</v>
       </c>
-      <c r="J146">
+      <c r="N146">
         <v>5.876558841926626E-32</v>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="O146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B147">
         <v>2014</v>
       </c>
       <c r="C147" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D147">
         <v>0.03649321323187343</v>
@@ -5672,27 +7436,39 @@
         <v>0.2130526315789474</v>
       </c>
       <c r="H147">
+        <v>0.3540868473917208</v>
+      </c>
+      <c r="I147">
+        <v>0.3540868473917207</v>
+      </c>
+      <c r="J147">
+        <v>0.1102936785948865</v>
+      </c>
+      <c r="K147">
+        <v>0.4386581296873484</v>
+      </c>
+      <c r="L147">
         <v>4.981488931053322</v>
       </c>
-      <c r="I147">
+      <c r="M147">
         <v>0.04479508011823504</v>
       </c>
-      <c r="J147">
+      <c r="N147">
         <v>5.876558841926626E-32</v>
       </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="O147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B148">
         <v>2014</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D148">
         <v>0.03468216840827051</v>
@@ -5707,27 +7483,39 @@
         <v>0.2385263157894737</v>
       </c>
       <c r="H148">
+        <v>0.3365146169608151</v>
+      </c>
+      <c r="I148">
+        <v>0.3365146169608152</v>
+      </c>
+      <c r="J148">
+        <v>0.08094906210555915</v>
+      </c>
+      <c r="K148">
+        <v>0.3298130740307412</v>
+      </c>
+      <c r="L148">
         <v>4.982890051425744</v>
       </c>
-      <c r="I148">
+      <c r="M148">
         <v>0.04479508011823504</v>
       </c>
-      <c r="J148">
+      <c r="N148">
         <v>5.876558841926626E-32</v>
       </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="O148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B149">
         <v>2014</v>
       </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D149">
         <v>0.03044547547672599</v>
@@ -5742,27 +7530,39 @@
         <v>0.5256842105263158</v>
       </c>
       <c r="H149">
+        <v>0.2954067749638506</v>
+      </c>
+      <c r="I149">
+        <v>0.2954067749638507</v>
+      </c>
+      <c r="J149">
+        <v>0.0615661048516889</v>
+      </c>
+      <c r="K149">
+        <v>0.2173310179681154</v>
+      </c>
+      <c r="L149">
         <v>5.580388753084303</v>
       </c>
-      <c r="I149">
+      <c r="M149">
         <v>0.04479508011823504</v>
       </c>
-      <c r="J149">
+      <c r="N149">
         <v>5.876558841926626E-32</v>
       </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="O149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B150">
         <v>2014</v>
       </c>
       <c r="C150" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D150">
         <v>0.02317387378087596</v>
@@ -5777,27 +7577,39 @@
         <v>0.2287282032906978</v>
       </c>
       <c r="H150">
+        <v>0.06064041809266647</v>
+      </c>
+      <c r="I150">
+        <v>0.06064041809266647</v>
+      </c>
+      <c r="J150">
+        <v>0.0437158766424344</v>
+      </c>
+      <c r="K150">
+        <v>0.04295149000874116</v>
+      </c>
+      <c r="L150">
         <v>3.358169182470329</v>
       </c>
-      <c r="I150">
+      <c r="M150">
         <v>0.2011522211938896</v>
       </c>
-      <c r="J150">
+      <c r="N150">
         <v>1.208799226564676E-31</v>
       </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="O150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B151">
         <v>2014</v>
       </c>
       <c r="C151" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D151">
         <v>0.1635489479592925</v>
@@ -5812,27 +7624,39 @@
         <v>0.2660874728944664</v>
       </c>
       <c r="H151">
+        <v>0.4279680072760095</v>
+      </c>
+      <c r="I151">
+        <v>0.4279680072760095</v>
+      </c>
+      <c r="J151">
+        <v>0.492574731663882</v>
+      </c>
+      <c r="K151">
+        <v>0.5702996935878039</v>
+      </c>
+      <c r="L151">
         <v>4.00197066914656</v>
       </c>
-      <c r="I151">
+      <c r="M151">
         <v>0.2011522211938896</v>
       </c>
-      <c r="J151">
+      <c r="N151">
         <v>1.208799226564676E-31</v>
       </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="O151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B152">
         <v>2014</v>
       </c>
       <c r="C152" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D152">
         <v>0.1067696569956642</v>
@@ -5847,27 +7671,39 @@
         <v>0.1260561971360125</v>
       </c>
       <c r="H152">
+        <v>0.279390347123179</v>
+      </c>
+      <c r="I152">
+        <v>0.2793903471231789</v>
+      </c>
+      <c r="J152">
+        <v>0.2070934350773701</v>
+      </c>
+      <c r="K152">
+        <v>0.2049684726811205</v>
+      </c>
+      <c r="L152">
         <v>6.058743171190206</v>
       </c>
-      <c r="I152">
+      <c r="M152">
         <v>0.2011522211938896</v>
       </c>
-      <c r="J152">
+      <c r="N152">
         <v>1.208799226564676E-31</v>
       </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="O152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B153">
         <v>2014</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D153">
         <v>0.08865979708560469</v>
@@ -5882,27 +7718,39 @@
         <v>0.3791281266788233</v>
       </c>
       <c r="H153">
+        <v>0.2320012275081451</v>
+      </c>
+      <c r="I153">
+        <v>0.232001227508145</v>
+      </c>
+      <c r="J153">
+        <v>0.2031243577988427</v>
+      </c>
+      <c r="K153">
+        <v>0.1817803437223344</v>
+      </c>
+      <c r="L153">
         <v>5.529256642936374</v>
       </c>
-      <c r="I153">
+      <c r="M153">
         <v>0.2011522211938896</v>
       </c>
-      <c r="J153">
+      <c r="N153">
         <v>1.208799226564676E-31</v>
       </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="O153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B154">
         <v>2014</v>
       </c>
       <c r="C154" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D154">
         <v>0.06313294850853536</v>
@@ -5917,27 +7765,39 @@
         <v>0.0145192740651854</v>
       </c>
       <c r="H154">
+        <v>0.01578323712713384</v>
+      </c>
+      <c r="I154">
+        <v>0.01578323712713384</v>
+      </c>
+      <c r="J154">
+        <v>0.195468407230889</v>
+      </c>
+      <c r="K154">
+        <v>0.02006958405280956</v>
+      </c>
+      <c r="L154">
         <v>3.721991958577703</v>
       </c>
-      <c r="I154">
+      <c r="M154">
         <v>1.557704599999999</v>
       </c>
-      <c r="J154">
+      <c r="N154">
         <v>8.79852335498691E-32</v>
       </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="O154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B155">
         <v>2014</v>
       </c>
       <c r="C155" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D155">
         <v>1.152887748065811</v>
@@ -5952,27 +7812,39 @@
         <v>0.1508005368925533</v>
       </c>
       <c r="H155">
+        <v>0.2882219370164527</v>
+      </c>
+      <c r="I155">
+        <v>0.2882219370164527</v>
+      </c>
+      <c r="J155">
+        <v>3.391844326738673</v>
+      </c>
+      <c r="K155">
+        <v>0.3783433873916182</v>
+      </c>
+      <c r="L155">
         <v>4.5174370118754</v>
       </c>
-      <c r="I155">
+      <c r="M155">
         <v>1.557704599999999</v>
       </c>
-      <c r="J155">
+      <c r="N155">
         <v>8.79852335498691E-32</v>
       </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="O155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B156">
         <v>2014</v>
       </c>
       <c r="C156" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D156">
         <v>1.39393729264189</v>
@@ -5987,27 +7859,39 @@
         <v>0.2591983871653201</v>
       </c>
       <c r="H156">
+        <v>0.3484843231604723</v>
+      </c>
+      <c r="I156">
+        <v>0.3484843231604723</v>
+      </c>
+      <c r="J156">
+        <v>3.267758968021907</v>
+      </c>
+      <c r="K156">
+        <v>0.3074633668122093</v>
+      </c>
+      <c r="L156">
         <v>5.854470404357131</v>
       </c>
-      <c r="I156">
+      <c r="M156">
         <v>1.557704599999999</v>
       </c>
-      <c r="J156">
+      <c r="N156">
         <v>8.79852335498691E-32</v>
       </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="O156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B157">
         <v>2014</v>
       </c>
       <c r="C157" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D157">
         <v>1.390042010783764</v>
@@ -6022,15 +7906,27 @@
         <v>0.5754818018769413</v>
       </c>
       <c r="H157">
+        <v>0.347510502695941</v>
+      </c>
+      <c r="I157">
+        <v>0.347510502695941</v>
+      </c>
+      <c r="J157">
+        <v>2.719821568750196</v>
+      </c>
+      <c r="K157">
+        <v>0.294123661743363</v>
+      </c>
+      <c r="L157">
         <v>5.600201288622839</v>
       </c>
-      <c r="I157">
+      <c r="M157">
         <v>1.557704599999999</v>
       </c>
-      <c r="J157">
+      <c r="N157">
         <v>8.79852335498691E-32</v>
       </c>
-      <c r="K157" t="b">
+      <c r="O157" t="b">
         <v>1</v>
       </c>
     </row>
